--- a/generated/ports.xlsx
+++ b/generated/ports.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:J252"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,6 +427,12 @@
       <c r="H2" t="str">
         <v>Excepted Arrivals</v>
       </c>
+      <c r="I2" t="str">
+        <v>View Vessels In port</v>
+      </c>
+      <c r="J2" t="str">
+        <v>View Expected Arrivals</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -442,16 +448,22 @@
         <v>Small</v>
       </c>
       <c r="E3" t="str">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>/in-port/2628</v>
+      </c>
+      <c r="J3" t="str">
+        <v>/arrivals/2628</v>
       </c>
     </row>
     <row r="4">
@@ -471,13 +483,19 @@
         <v>3</v>
       </c>
       <c r="F4" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4" t="str">
         <v>0</v>
+      </c>
+      <c r="I4" t="str">
+        <v>/in-port/5307</v>
+      </c>
+      <c r="J4" t="str">
+        <v>/arrivals/5307</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +521,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="str">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="str">
+        <v>/in-port/5175</v>
+      </c>
+      <c r="J5" t="str">
+        <v>/arrivals/5175</v>
       </c>
     </row>
     <row r="6">
@@ -520,16 +544,22 @@
         <v>XLarge</v>
       </c>
       <c r="E6" t="str">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" t="str">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" t="str">
         <v>11</v>
       </c>
       <c r="H6" t="str">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I6" t="str">
+        <v>/in-port/80</v>
+      </c>
+      <c r="J6" t="str">
+        <v>/arrivals/80</v>
       </c>
     </row>
     <row r="7">
@@ -546,16 +576,22 @@
         <v>Small</v>
       </c>
       <c r="E7" t="str">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F7" t="str">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" t="str">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" t="str">
         <v>0</v>
+      </c>
+      <c r="I7" t="str">
+        <v>/in-port/885</v>
+      </c>
+      <c r="J7" t="str">
+        <v>/arrivals/885</v>
       </c>
     </row>
     <row r="8">
@@ -583,6 +619,12 @@
       <c r="H8" t="str">
         <v>3</v>
       </c>
+      <c r="I8" t="str">
+        <v>/in-port/990</v>
+      </c>
+      <c r="J8" t="str">
+        <v>/arrivals/990</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -598,16 +640,22 @@
         <v>Large</v>
       </c>
       <c r="E9" t="str">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F9" t="str">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G9" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" t="str">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="I9" t="str">
+        <v>/in-port/82</v>
+      </c>
+      <c r="J9" t="str">
+        <v>/arrivals/82</v>
       </c>
     </row>
     <row r="10">
@@ -635,6 +683,12 @@
       <c r="H10" t="str">
         <v>0</v>
       </c>
+      <c r="I10" t="str">
+        <v>/in-port/3592</v>
+      </c>
+      <c r="J10" t="str">
+        <v>/arrivals/3592</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -653,13 +707,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="str">
         <v>0</v>
+      </c>
+      <c r="I11" t="str">
+        <v>/in-port/4523</v>
+      </c>
+      <c r="J11" t="str">
+        <v>/arrivals/4523</v>
       </c>
     </row>
     <row r="12">
@@ -676,16 +736,22 @@
         <v>XSmall</v>
       </c>
       <c r="E12" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="str">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G12" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" t="str">
         <v>0</v>
+      </c>
+      <c r="I12" t="str">
+        <v>/in-port/5327</v>
+      </c>
+      <c r="J12" t="str">
+        <v>/arrivals/5327</v>
       </c>
     </row>
     <row r="13">
@@ -713,6 +779,12 @@
       <c r="H13" t="str">
         <v>2</v>
       </c>
+      <c r="I13" t="str">
+        <v>/in-port/6344</v>
+      </c>
+      <c r="J13" t="str">
+        <v>/arrivals/6344</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -728,16 +800,22 @@
         <v>Medium</v>
       </c>
       <c r="E14" t="str">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F14" t="str">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G14" t="str">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H14" t="str">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="I14" t="str">
+        <v>/in-port/83</v>
+      </c>
+      <c r="J14" t="str">
+        <v>/arrivals/83</v>
       </c>
     </row>
     <row r="15">
@@ -754,16 +832,22 @@
         <v>Medium</v>
       </c>
       <c r="E15" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" t="str">
         <v>0</v>
       </c>
       <c r="G15" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="str">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15" t="str">
+        <v>/in-port/2454</v>
+      </c>
+      <c r="J15" t="str">
+        <v>/arrivals/2454</v>
       </c>
     </row>
     <row r="16">
@@ -791,6 +875,12 @@
       <c r="H16" t="str">
         <v>0</v>
       </c>
+      <c r="I16" t="str">
+        <v>/in-port/1537</v>
+      </c>
+      <c r="J16" t="str">
+        <v>/arrivals/1537</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -806,16 +896,22 @@
         <v>XLarge</v>
       </c>
       <c r="E17" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F17" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G17" t="str">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H17" t="str">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I17" t="str">
+        <v>/in-port/3337</v>
+      </c>
+      <c r="J17" t="str">
+        <v>/arrivals/3337</v>
       </c>
     </row>
     <row r="18">
@@ -832,16 +928,22 @@
         <v>Small</v>
       </c>
       <c r="E18" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="str">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G18" t="str">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H18" t="str">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I18" t="str">
+        <v>/in-port/5426</v>
+      </c>
+      <c r="J18" t="str">
+        <v>/arrivals/5426</v>
       </c>
     </row>
     <row r="19">
@@ -869,6 +971,12 @@
       <c r="H19" t="str">
         <v>0</v>
       </c>
+      <c r="I19" t="str">
+        <v>/in-port/5642</v>
+      </c>
+      <c r="J19" t="str">
+        <v>/arrivals/5642</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -890,10 +998,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="str">
         <v>0</v>
+      </c>
+      <c r="I20" t="str">
+        <v>/in-port/5805</v>
+      </c>
+      <c r="J20" t="str">
+        <v>/arrivals/5805</v>
       </c>
     </row>
     <row r="21">
@@ -916,10 +1030,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="str">
         <v>0</v>
+      </c>
+      <c r="I21" t="str">
+        <v>/in-port/3181</v>
+      </c>
+      <c r="J21" t="str">
+        <v>/arrivals/3181</v>
       </c>
     </row>
     <row r="22">
@@ -936,16 +1056,22 @@
         <v>XLarge</v>
       </c>
       <c r="E22" t="str">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F22" t="str">
         <v>34</v>
       </c>
       <c r="G22" t="str">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H22" t="str">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="I22" t="str">
+        <v>/in-port/84</v>
+      </c>
+      <c r="J22" t="str">
+        <v>/arrivals/84</v>
       </c>
     </row>
     <row r="23">
@@ -962,16 +1088,22 @@
         <v>Small</v>
       </c>
       <c r="E23" t="str">
+        <v>2</v>
+      </c>
+      <c r="F23" t="str">
         <v>1</v>
       </c>
-      <c r="F23" t="str">
-        <v>0</v>
-      </c>
       <c r="G23" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="str">
         <v>1</v>
+      </c>
+      <c r="I23" t="str">
+        <v>/in-port/5853</v>
+      </c>
+      <c r="J23" t="str">
+        <v>/arrivals/5853</v>
       </c>
     </row>
     <row r="24">
@@ -991,13 +1123,19 @@
         <v>2</v>
       </c>
       <c r="F24" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" t="str">
         <v>2</v>
       </c>
       <c r="H24" t="str">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I24" t="str">
+        <v>/in-port/3599</v>
+      </c>
+      <c r="J24" t="str">
+        <v>/arrivals/3599</v>
       </c>
     </row>
     <row r="25">
@@ -1017,13 +1155,19 @@
         <v>9</v>
       </c>
       <c r="F25" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" t="str">
         <v>11</v>
+      </c>
+      <c r="I25" t="str">
+        <v>/in-port/3173</v>
+      </c>
+      <c r="J25" t="str">
+        <v>/arrivals/3173</v>
       </c>
     </row>
     <row r="26">
@@ -1051,6 +1195,12 @@
       <c r="H26" t="str">
         <v>0</v>
       </c>
+      <c r="I26" t="str">
+        <v>/in-port/4856</v>
+      </c>
+      <c r="J26" t="str">
+        <v>/arrivals/4856</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1069,13 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F27" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G27" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="str">
         <v>0</v>
+      </c>
+      <c r="I27" t="str">
+        <v>/in-port/4696</v>
+      </c>
+      <c r="J27" t="str">
+        <v>/arrivals/4696</v>
       </c>
     </row>
     <row r="28">
@@ -1103,6 +1259,12 @@
       <c r="H28" t="str">
         <v>0</v>
       </c>
+      <c r="I28" t="str">
+        <v>/in-port/6089</v>
+      </c>
+      <c r="J28" t="str">
+        <v>/arrivals/6089</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1121,13 +1283,19 @@
         <v>4</v>
       </c>
       <c r="F29" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="str">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I29" t="str">
+        <v>/in-port/7155</v>
+      </c>
+      <c r="J29" t="str">
+        <v>/arrivals/7155</v>
       </c>
     </row>
     <row r="30">
@@ -1155,6 +1323,12 @@
       <c r="H30" t="str">
         <v>0</v>
       </c>
+      <c r="I30" t="str">
+        <v>/in-port/6616</v>
+      </c>
+      <c r="J30" t="str">
+        <v>/arrivals/6616</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1181,6 +1355,12 @@
       <c r="H31" t="str">
         <v>0</v>
       </c>
+      <c r="I31" t="str">
+        <v>/in-port/3338</v>
+      </c>
+      <c r="J31" t="str">
+        <v>/arrivals/3338</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1207,6 +1387,12 @@
       <c r="H32" t="str">
         <v>0</v>
       </c>
+      <c r="I32" t="str">
+        <v>/in-port/6767</v>
+      </c>
+      <c r="J32" t="str">
+        <v>/arrivals/6767</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1233,6 +1419,12 @@
       <c r="H33" t="str">
         <v>0</v>
       </c>
+      <c r="I33" t="str">
+        <v>/in-port/777</v>
+      </c>
+      <c r="J33" t="str">
+        <v>/arrivals/777</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1259,6 +1451,12 @@
       <c r="H34" t="str">
         <v>0</v>
       </c>
+      <c r="I34" t="str">
+        <v>/in-port/516</v>
+      </c>
+      <c r="J34" t="str">
+        <v>/arrivals/516</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1283,7 +1481,13 @@
         <v>0</v>
       </c>
       <c r="H35" t="str">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I35" t="str">
+        <v>/in-port/528</v>
+      </c>
+      <c r="J35" t="str">
+        <v>/arrivals/528</v>
       </c>
     </row>
     <row r="36">
@@ -1300,16 +1504,22 @@
         <v>XSmall</v>
       </c>
       <c r="E36" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="str">
         <v>3</v>
       </c>
       <c r="G36" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" t="str">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I36" t="str">
+        <v>/in-port/1586</v>
+      </c>
+      <c r="J36" t="str">
+        <v>/arrivals/1586</v>
       </c>
     </row>
     <row r="37">
@@ -1337,6 +1547,12 @@
       <c r="H37" t="str">
         <v>0</v>
       </c>
+      <c r="I37" t="str">
+        <v>/in-port/3159</v>
+      </c>
+      <c r="J37" t="str">
+        <v>/arrivals/3159</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1363,6 +1579,12 @@
       <c r="H38" t="str">
         <v>0</v>
       </c>
+      <c r="I38" t="str">
+        <v>/in-port/6234</v>
+      </c>
+      <c r="J38" t="str">
+        <v>/arrivals/6234</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1381,13 +1603,19 @@
         <v>123</v>
       </c>
       <c r="F39" t="str">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G39" t="str">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H39" t="str">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I39" t="str">
+        <v>/in-port/3813</v>
+      </c>
+      <c r="J39" t="str">
+        <v>/arrivals/3813</v>
       </c>
     </row>
     <row r="40">
@@ -1404,7 +1632,7 @@
         <v>Large</v>
       </c>
       <c r="E40" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="str">
         <v>0</v>
@@ -1414,6 +1642,12 @@
       </c>
       <c r="H40" t="str">
         <v>15</v>
+      </c>
+      <c r="I40" t="str">
+        <v>/in-port/3454</v>
+      </c>
+      <c r="J40" t="str">
+        <v>/arrivals/3454</v>
       </c>
     </row>
     <row r="41">
@@ -1441,6 +1675,12 @@
       <c r="H41" t="str">
         <v>0</v>
       </c>
+      <c r="I41" t="str">
+        <v>/in-port/3053</v>
+      </c>
+      <c r="J41" t="str">
+        <v>/arrivals/3053</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1467,6 +1707,12 @@
       <c r="H42" t="str">
         <v>1</v>
       </c>
+      <c r="I42" t="str">
+        <v>/in-port/5766</v>
+      </c>
+      <c r="J42" t="str">
+        <v>/arrivals/5766</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1482,16 +1728,22 @@
         <v>Small</v>
       </c>
       <c r="E43" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F43" t="str">
         <v>0</v>
       </c>
       <c r="G43" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="str">
         <v>0</v>
+      </c>
+      <c r="I43" t="str">
+        <v>/in-port/1895</v>
+      </c>
+      <c r="J43" t="str">
+        <v>/arrivals/1895</v>
       </c>
     </row>
     <row r="44">
@@ -1519,6 +1771,12 @@
       <c r="H44" t="str">
         <v>0</v>
       </c>
+      <c r="I44" t="str">
+        <v>/in-port/2738</v>
+      </c>
+      <c r="J44" t="str">
+        <v>/arrivals/2738</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1537,13 +1795,19 @@
         <v>10</v>
       </c>
       <c r="F45" t="str">
+        <v>34</v>
+      </c>
+      <c r="G45" t="str">
         <v>40</v>
-      </c>
-      <c r="G45" t="str">
-        <v>47</v>
       </c>
       <c r="H45" t="str">
         <v>8</v>
+      </c>
+      <c r="I45" t="str">
+        <v>/in-port/5</v>
+      </c>
+      <c r="J45" t="str">
+        <v>/arrivals/5</v>
       </c>
     </row>
     <row r="46">
@@ -1571,6 +1835,12 @@
       <c r="H46" t="str">
         <v>0</v>
       </c>
+      <c r="I46" t="str">
+        <v>/in-port/793</v>
+      </c>
+      <c r="J46" t="str">
+        <v>/arrivals/793</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1597,6 +1867,12 @@
       <c r="H47" t="str">
         <v>0</v>
       </c>
+      <c r="I47" t="str">
+        <v>/in-port/636</v>
+      </c>
+      <c r="J47" t="str">
+        <v>/arrivals/636</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1615,13 +1891,19 @@
         <v>0</v>
       </c>
       <c r="F48" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="str">
         <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <v>/in-port/5653</v>
+      </c>
+      <c r="J48" t="str">
+        <v>/arrivals/5653</v>
       </c>
     </row>
     <row r="49">
@@ -1638,16 +1920,22 @@
         <v>XSmall</v>
       </c>
       <c r="E49" t="str">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F49" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G49" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H49" t="str">
         <v>2</v>
+      </c>
+      <c r="I49" t="str">
+        <v>/in-port/2612</v>
+      </c>
+      <c r="J49" t="str">
+        <v>/arrivals/2612</v>
       </c>
     </row>
     <row r="50">
@@ -1675,6 +1963,12 @@
       <c r="H50" t="str">
         <v>1</v>
       </c>
+      <c r="I50" t="str">
+        <v>/in-port/778</v>
+      </c>
+      <c r="J50" t="str">
+        <v>/arrivals/778</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1690,7 +1984,7 @@
         <v>XSmall</v>
       </c>
       <c r="E51" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" t="str">
         <v>0</v>
@@ -1700,6 +1994,12 @@
       </c>
       <c r="H51" t="str">
         <v>0</v>
+      </c>
+      <c r="I51" t="str">
+        <v>/in-port/3578</v>
+      </c>
+      <c r="J51" t="str">
+        <v>/arrivals/3578</v>
       </c>
     </row>
     <row r="52">
@@ -1716,16 +2016,22 @@
         <v>Medium</v>
       </c>
       <c r="E52" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G52" t="str">
         <v>2</v>
       </c>
       <c r="H52" t="str">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="I52" t="str">
+        <v>/in-port/3303</v>
+      </c>
+      <c r="J52" t="str">
+        <v>/arrivals/3303</v>
       </c>
     </row>
     <row r="53">
@@ -1742,16 +2048,22 @@
         <v>Small</v>
       </c>
       <c r="E53" t="str">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F53" t="str">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G53" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H53" t="str">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="str">
+        <v>/in-port/2628</v>
+      </c>
+      <c r="J53" t="str">
+        <v>/arrivals/2628</v>
       </c>
     </row>
     <row r="54">
@@ -1771,13 +2083,19 @@
         <v>3</v>
       </c>
       <c r="F54" t="str">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G54" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="str">
         <v>0</v>
+      </c>
+      <c r="I54" t="str">
+        <v>/in-port/5307</v>
+      </c>
+      <c r="J54" t="str">
+        <v>/arrivals/5307</v>
       </c>
     </row>
     <row r="55">
@@ -1803,7 +2121,13 @@
         <v>0</v>
       </c>
       <c r="H55" t="str">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I55" t="str">
+        <v>/in-port/5175</v>
+      </c>
+      <c r="J55" t="str">
+        <v>/arrivals/5175</v>
       </c>
     </row>
     <row r="56">
@@ -1820,16 +2144,22 @@
         <v>XLarge</v>
       </c>
       <c r="E56" t="str">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F56" t="str">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G56" t="str">
         <v>11</v>
       </c>
       <c r="H56" t="str">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="I56" t="str">
+        <v>/in-port/80</v>
+      </c>
+      <c r="J56" t="str">
+        <v>/arrivals/80</v>
       </c>
     </row>
     <row r="57">
@@ -1846,16 +2176,22 @@
         <v>Small</v>
       </c>
       <c r="E57" t="str">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F57" t="str">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G57" t="str">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H57" t="str">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I57" t="str">
+        <v>/in-port/885</v>
+      </c>
+      <c r="J57" t="str">
+        <v>/arrivals/885</v>
       </c>
     </row>
     <row r="58">
@@ -1883,6 +2219,12 @@
       <c r="H58" t="str">
         <v>3</v>
       </c>
+      <c r="I58" t="str">
+        <v>/in-port/990</v>
+      </c>
+      <c r="J58" t="str">
+        <v>/arrivals/990</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1898,16 +2240,22 @@
         <v>Large</v>
       </c>
       <c r="E59" t="str">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F59" t="str">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G59" t="str">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H59" t="str">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="I59" t="str">
+        <v>/in-port/82</v>
+      </c>
+      <c r="J59" t="str">
+        <v>/arrivals/82</v>
       </c>
     </row>
     <row r="60">
@@ -1935,6 +2283,12 @@
       <c r="H60" t="str">
         <v>0</v>
       </c>
+      <c r="I60" t="str">
+        <v>/in-port/3592</v>
+      </c>
+      <c r="J60" t="str">
+        <v>/arrivals/3592</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1953,13 +2307,19 @@
         <v>0</v>
       </c>
       <c r="F61" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="str">
         <v>0</v>
+      </c>
+      <c r="I61" t="str">
+        <v>/in-port/4523</v>
+      </c>
+      <c r="J61" t="str">
+        <v>/arrivals/4523</v>
       </c>
     </row>
     <row r="62">
@@ -1976,16 +2336,22 @@
         <v>XSmall</v>
       </c>
       <c r="E62" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" t="str">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G62" t="str">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H62" t="str">
         <v>0</v>
+      </c>
+      <c r="I62" t="str">
+        <v>/in-port/5327</v>
+      </c>
+      <c r="J62" t="str">
+        <v>/arrivals/5327</v>
       </c>
     </row>
     <row r="63">
@@ -2013,6 +2379,12 @@
       <c r="H63" t="str">
         <v>2</v>
       </c>
+      <c r="I63" t="str">
+        <v>/in-port/6344</v>
+      </c>
+      <c r="J63" t="str">
+        <v>/arrivals/6344</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -2028,16 +2400,22 @@
         <v>Medium</v>
       </c>
       <c r="E64" t="str">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F64" t="str">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G64" t="str">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H64" t="str">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="I64" t="str">
+        <v>/in-port/83</v>
+      </c>
+      <c r="J64" t="str">
+        <v>/arrivals/83</v>
       </c>
     </row>
     <row r="65">
@@ -2054,16 +2432,22 @@
         <v>Medium</v>
       </c>
       <c r="E65" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="str">
         <v>0</v>
       </c>
       <c r="G65" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="str">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <v>/in-port/2454</v>
+      </c>
+      <c r="J65" t="str">
+        <v>/arrivals/2454</v>
       </c>
     </row>
     <row r="66">
@@ -2091,6 +2475,12 @@
       <c r="H66" t="str">
         <v>0</v>
       </c>
+      <c r="I66" t="str">
+        <v>/in-port/1537</v>
+      </c>
+      <c r="J66" t="str">
+        <v>/arrivals/1537</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -2106,16 +2496,22 @@
         <v>XLarge</v>
       </c>
       <c r="E67" t="str">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F67" t="str">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" t="str">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H67" t="str">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="I67" t="str">
+        <v>/in-port/3337</v>
+      </c>
+      <c r="J67" t="str">
+        <v>/arrivals/3337</v>
       </c>
     </row>
     <row r="68">
@@ -2132,16 +2528,22 @@
         <v>Small</v>
       </c>
       <c r="E68" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="str">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G68" t="str">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H68" t="str">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I68" t="str">
+        <v>/in-port/5426</v>
+      </c>
+      <c r="J68" t="str">
+        <v>/arrivals/5426</v>
       </c>
     </row>
     <row r="69">
@@ -2169,6 +2571,12 @@
       <c r="H69" t="str">
         <v>0</v>
       </c>
+      <c r="I69" t="str">
+        <v>/in-port/5642</v>
+      </c>
+      <c r="J69" t="str">
+        <v>/arrivals/5642</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -2190,10 +2598,16 @@
         <v>0</v>
       </c>
       <c r="G70" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="str">
         <v>0</v>
+      </c>
+      <c r="I70" t="str">
+        <v>/in-port/5805</v>
+      </c>
+      <c r="J70" t="str">
+        <v>/arrivals/5805</v>
       </c>
     </row>
     <row r="71">
@@ -2216,10 +2630,16 @@
         <v>0</v>
       </c>
       <c r="G71" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="str">
         <v>0</v>
+      </c>
+      <c r="I71" t="str">
+        <v>/in-port/3181</v>
+      </c>
+      <c r="J71" t="str">
+        <v>/arrivals/3181</v>
       </c>
     </row>
     <row r="72">
@@ -2236,16 +2656,22 @@
         <v>XLarge</v>
       </c>
       <c r="E72" t="str">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F72" t="str">
         <v>34</v>
       </c>
       <c r="G72" t="str">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H72" t="str">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="I72" t="str">
+        <v>/in-port/84</v>
+      </c>
+      <c r="J72" t="str">
+        <v>/arrivals/84</v>
       </c>
     </row>
     <row r="73">
@@ -2262,16 +2688,22 @@
         <v>Small</v>
       </c>
       <c r="E73" t="str">
+        <v>2</v>
+      </c>
+      <c r="F73" t="str">
         <v>1</v>
       </c>
-      <c r="F73" t="str">
-        <v>0</v>
-      </c>
       <c r="G73" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="str">
         <v>1</v>
+      </c>
+      <c r="I73" t="str">
+        <v>/in-port/5853</v>
+      </c>
+      <c r="J73" t="str">
+        <v>/arrivals/5853</v>
       </c>
     </row>
     <row r="74">
@@ -2291,13 +2723,19 @@
         <v>2</v>
       </c>
       <c r="F74" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="str">
         <v>2</v>
       </c>
       <c r="H74" t="str">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I74" t="str">
+        <v>/in-port/3599</v>
+      </c>
+      <c r="J74" t="str">
+        <v>/arrivals/3599</v>
       </c>
     </row>
     <row r="75">
@@ -2317,13 +2755,19 @@
         <v>9</v>
       </c>
       <c r="F75" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="str">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H75" t="str">
         <v>11</v>
+      </c>
+      <c r="I75" t="str">
+        <v>/in-port/3173</v>
+      </c>
+      <c r="J75" t="str">
+        <v>/arrivals/3173</v>
       </c>
     </row>
     <row r="76">
@@ -2351,6 +2795,12 @@
       <c r="H76" t="str">
         <v>0</v>
       </c>
+      <c r="I76" t="str">
+        <v>/in-port/4856</v>
+      </c>
+      <c r="J76" t="str">
+        <v>/arrivals/4856</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -2369,13 +2819,19 @@
         <v>1</v>
       </c>
       <c r="F77" t="str">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G77" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H77" t="str">
         <v>0</v>
+      </c>
+      <c r="I77" t="str">
+        <v>/in-port/4696</v>
+      </c>
+      <c r="J77" t="str">
+        <v>/arrivals/4696</v>
       </c>
     </row>
     <row r="78">
@@ -2403,6 +2859,12 @@
       <c r="H78" t="str">
         <v>0</v>
       </c>
+      <c r="I78" t="str">
+        <v>/in-port/6089</v>
+      </c>
+      <c r="J78" t="str">
+        <v>/arrivals/6089</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -2421,13 +2883,19 @@
         <v>4</v>
       </c>
       <c r="F79" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="str">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I79" t="str">
+        <v>/in-port/7155</v>
+      </c>
+      <c r="J79" t="str">
+        <v>/arrivals/7155</v>
       </c>
     </row>
     <row r="80">
@@ -2455,6 +2923,12 @@
       <c r="H80" t="str">
         <v>0</v>
       </c>
+      <c r="I80" t="str">
+        <v>/in-port/6616</v>
+      </c>
+      <c r="J80" t="str">
+        <v>/arrivals/6616</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -2481,6 +2955,12 @@
       <c r="H81" t="str">
         <v>0</v>
       </c>
+      <c r="I81" t="str">
+        <v>/in-port/3338</v>
+      </c>
+      <c r="J81" t="str">
+        <v>/arrivals/3338</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -2507,6 +2987,12 @@
       <c r="H82" t="str">
         <v>0</v>
       </c>
+      <c r="I82" t="str">
+        <v>/in-port/6767</v>
+      </c>
+      <c r="J82" t="str">
+        <v>/arrivals/6767</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -2533,6 +3019,12 @@
       <c r="H83" t="str">
         <v>0</v>
       </c>
+      <c r="I83" t="str">
+        <v>/in-port/777</v>
+      </c>
+      <c r="J83" t="str">
+        <v>/arrivals/777</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -2559,6 +3051,12 @@
       <c r="H84" t="str">
         <v>0</v>
       </c>
+      <c r="I84" t="str">
+        <v>/in-port/516</v>
+      </c>
+      <c r="J84" t="str">
+        <v>/arrivals/516</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -2583,7 +3081,13 @@
         <v>0</v>
       </c>
       <c r="H85" t="str">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I85" t="str">
+        <v>/in-port/528</v>
+      </c>
+      <c r="J85" t="str">
+        <v>/arrivals/528</v>
       </c>
     </row>
     <row r="86">
@@ -2600,16 +3104,22 @@
         <v>XSmall</v>
       </c>
       <c r="E86" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="str">
         <v>3</v>
       </c>
       <c r="G86" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H86" t="str">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I86" t="str">
+        <v>/in-port/1586</v>
+      </c>
+      <c r="J86" t="str">
+        <v>/arrivals/1586</v>
       </c>
     </row>
     <row r="87">
@@ -2637,6 +3147,12 @@
       <c r="H87" t="str">
         <v>0</v>
       </c>
+      <c r="I87" t="str">
+        <v>/in-port/3159</v>
+      </c>
+      <c r="J87" t="str">
+        <v>/arrivals/3159</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -2663,6 +3179,12 @@
       <c r="H88" t="str">
         <v>0</v>
       </c>
+      <c r="I88" t="str">
+        <v>/in-port/6234</v>
+      </c>
+      <c r="J88" t="str">
+        <v>/arrivals/6234</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -2681,13 +3203,19 @@
         <v>123</v>
       </c>
       <c r="F89" t="str">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="G89" t="str">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H89" t="str">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="I89" t="str">
+        <v>/in-port/3813</v>
+      </c>
+      <c r="J89" t="str">
+        <v>/arrivals/3813</v>
       </c>
     </row>
     <row r="90">
@@ -2704,7 +3232,7 @@
         <v>Large</v>
       </c>
       <c r="E90" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="str">
         <v>0</v>
@@ -2714,6 +3242,12 @@
       </c>
       <c r="H90" t="str">
         <v>15</v>
+      </c>
+      <c r="I90" t="str">
+        <v>/in-port/3454</v>
+      </c>
+      <c r="J90" t="str">
+        <v>/arrivals/3454</v>
       </c>
     </row>
     <row r="91">
@@ -2741,6 +3275,12 @@
       <c r="H91" t="str">
         <v>0</v>
       </c>
+      <c r="I91" t="str">
+        <v>/in-port/3053</v>
+      </c>
+      <c r="J91" t="str">
+        <v>/arrivals/3053</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -2767,6 +3307,12 @@
       <c r="H92" t="str">
         <v>1</v>
       </c>
+      <c r="I92" t="str">
+        <v>/in-port/5766</v>
+      </c>
+      <c r="J92" t="str">
+        <v>/arrivals/5766</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -2782,16 +3328,22 @@
         <v>Small</v>
       </c>
       <c r="E93" t="str">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F93" t="str">
         <v>0</v>
       </c>
       <c r="G93" t="str">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" t="str">
         <v>0</v>
+      </c>
+      <c r="I93" t="str">
+        <v>/in-port/1895</v>
+      </c>
+      <c r="J93" t="str">
+        <v>/arrivals/1895</v>
       </c>
     </row>
     <row r="94">
@@ -2819,6 +3371,12 @@
       <c r="H94" t="str">
         <v>0</v>
       </c>
+      <c r="I94" t="str">
+        <v>/in-port/2738</v>
+      </c>
+      <c r="J94" t="str">
+        <v>/arrivals/2738</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -2837,13 +3395,19 @@
         <v>10</v>
       </c>
       <c r="F95" t="str">
+        <v>34</v>
+      </c>
+      <c r="G95" t="str">
         <v>40</v>
-      </c>
-      <c r="G95" t="str">
-        <v>47</v>
       </c>
       <c r="H95" t="str">
         <v>8</v>
+      </c>
+      <c r="I95" t="str">
+        <v>/in-port/5</v>
+      </c>
+      <c r="J95" t="str">
+        <v>/arrivals/5</v>
       </c>
     </row>
     <row r="96">
@@ -2871,6 +3435,12 @@
       <c r="H96" t="str">
         <v>0</v>
       </c>
+      <c r="I96" t="str">
+        <v>/in-port/793</v>
+      </c>
+      <c r="J96" t="str">
+        <v>/arrivals/793</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -2897,6 +3467,12 @@
       <c r="H97" t="str">
         <v>0</v>
       </c>
+      <c r="I97" t="str">
+        <v>/in-port/636</v>
+      </c>
+      <c r="J97" t="str">
+        <v>/arrivals/636</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -2915,13 +3491,19 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="str">
         <v>0</v>
+      </c>
+      <c r="I98" t="str">
+        <v>/in-port/5653</v>
+      </c>
+      <c r="J98" t="str">
+        <v>/arrivals/5653</v>
       </c>
     </row>
     <row r="99">
@@ -2938,16 +3520,22 @@
         <v>XSmall</v>
       </c>
       <c r="E99" t="str">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F99" t="str">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G99" t="str">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H99" t="str">
         <v>2</v>
+      </c>
+      <c r="I99" t="str">
+        <v>/in-port/2612</v>
+      </c>
+      <c r="J99" t="str">
+        <v>/arrivals/2612</v>
       </c>
     </row>
     <row r="100">
@@ -2975,6 +3563,12 @@
       <c r="H100" t="str">
         <v>1</v>
       </c>
+      <c r="I100" t="str">
+        <v>/in-port/778</v>
+      </c>
+      <c r="J100" t="str">
+        <v>/arrivals/778</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -2990,7 +3584,7 @@
         <v>XSmall</v>
       </c>
       <c r="E101" t="str">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F101" t="str">
         <v>0</v>
@@ -3000,6 +3594,12 @@
       </c>
       <c r="H101" t="str">
         <v>0</v>
+      </c>
+      <c r="I101" t="str">
+        <v>/in-port/3578</v>
+      </c>
+      <c r="J101" t="str">
+        <v>/arrivals/3578</v>
       </c>
     </row>
     <row r="102">
@@ -3016,21 +3616,4827 @@
         <v>Medium</v>
       </c>
       <c r="E102" t="str">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G102" t="str">
         <v>2</v>
       </c>
       <c r="H102" t="str">
+        <v>10</v>
+      </c>
+      <c r="I102" t="str">
+        <v>/in-port/3303</v>
+      </c>
+      <c r="J102" t="str">
+        <v>/arrivals/3303</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>2628</v>
+      </c>
+      <c r="B103" t="str">
+        <v>AABENRAA</v>
+      </c>
+      <c r="C103" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D103" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E103" t="str">
+        <v>41</v>
+      </c>
+      <c r="F103" t="str">
+        <v>5</v>
+      </c>
+      <c r="G103" t="str">
+        <v>1</v>
+      </c>
+      <c r="H103" t="str">
+        <v>1</v>
+      </c>
+      <c r="I103" t="str">
+        <v>/in-port/2628</v>
+      </c>
+      <c r="J103" t="str">
+        <v>/arrivals/2628</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>5307</v>
+      </c>
+      <c r="B104" t="str">
+        <v>AAGOTNES</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D104" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E104" t="str">
+        <v>3</v>
+      </c>
+      <c r="F104" t="str">
+        <v>0</v>
+      </c>
+      <c r="G104" t="str">
+        <v>0</v>
+      </c>
+      <c r="H104" t="str">
+        <v>0</v>
+      </c>
+      <c r="I104" t="str">
+        <v>/in-port/5307</v>
+      </c>
+      <c r="J104" t="str">
+        <v>/arrivals/5307</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>5175</v>
+      </c>
+      <c r="B105" t="str">
+        <v>AAHEIM</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D105" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E105" t="str">
+        <v>0</v>
+      </c>
+      <c r="F105" t="str">
+        <v>0</v>
+      </c>
+      <c r="G105" t="str">
+        <v>0</v>
+      </c>
+      <c r="H105" t="str">
+        <v>1</v>
+      </c>
+      <c r="I105" t="str">
+        <v>/in-port/5175</v>
+      </c>
+      <c r="J105" t="str">
+        <v>/arrivals/5175</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>80</v>
+      </c>
+      <c r="B106" t="str">
+        <v>AALBORG</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D106" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E106" t="str">
+        <v>57</v>
+      </c>
+      <c r="F106" t="str">
+        <v>13</v>
+      </c>
+      <c r="G106" t="str">
         <v>11</v>
+      </c>
+      <c r="H106" t="str">
+        <v>6</v>
+      </c>
+      <c r="I106" t="str">
+        <v>/in-port/80</v>
+      </c>
+      <c r="J106" t="str">
+        <v>/arrivals/80</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>885</v>
+      </c>
+      <c r="B107" t="str">
+        <v>AALSMEER</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D107" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E107" t="str">
+        <v>24</v>
+      </c>
+      <c r="F107" t="str">
+        <v>14</v>
+      </c>
+      <c r="G107" t="str">
+        <v>15</v>
+      </c>
+      <c r="H107" t="str">
+        <v>0</v>
+      </c>
+      <c r="I107" t="str">
+        <v>/in-port/885</v>
+      </c>
+      <c r="J107" t="str">
+        <v>/arrivals/885</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>990</v>
+      </c>
+      <c r="B108" t="str">
+        <v>AALST</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D108" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E108" t="str">
+        <v>1</v>
+      </c>
+      <c r="F108" t="str">
+        <v>0</v>
+      </c>
+      <c r="G108" t="str">
+        <v>0</v>
+      </c>
+      <c r="H108" t="str">
+        <v>3</v>
+      </c>
+      <c r="I108" t="str">
+        <v>/in-port/990</v>
+      </c>
+      <c r="J108" t="str">
+        <v>/arrivals/990</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>82</v>
+      </c>
+      <c r="B109" t="str">
+        <v>AARHUS</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D109" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E109" t="str">
+        <v>125</v>
+      </c>
+      <c r="F109" t="str">
+        <v>38</v>
+      </c>
+      <c r="G109" t="str">
+        <v>38</v>
+      </c>
+      <c r="H109" t="str">
+        <v>3</v>
+      </c>
+      <c r="I109" t="str">
+        <v>/in-port/82</v>
+      </c>
+      <c r="J109" t="str">
+        <v>/arrivals/82</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>3592</v>
+      </c>
+      <c r="B110" t="str">
+        <v>ABADAN</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D110" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E110" t="str">
+        <v>3</v>
+      </c>
+      <c r="F110" t="str">
+        <v>0</v>
+      </c>
+      <c r="G110" t="str">
+        <v>0</v>
+      </c>
+      <c r="H110" t="str">
+        <v>0</v>
+      </c>
+      <c r="I110" t="str">
+        <v>/in-port/3592</v>
+      </c>
+      <c r="J110" t="str">
+        <v>/arrivals/3592</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>4523</v>
+      </c>
+      <c r="B111" t="str">
+        <v>ABASHIRI</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D111" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E111" t="str">
+        <v>0</v>
+      </c>
+      <c r="F111" t="str">
+        <v>0</v>
+      </c>
+      <c r="G111" t="str">
+        <v>0</v>
+      </c>
+      <c r="H111" t="str">
+        <v>0</v>
+      </c>
+      <c r="I111" t="str">
+        <v>/in-port/4523</v>
+      </c>
+      <c r="J111" t="str">
+        <v>/arrivals/4523</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>5327</v>
+      </c>
+      <c r="B112" t="str">
+        <v>ABELNES</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D112" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E112" t="str">
+        <v>4</v>
+      </c>
+      <c r="F112" t="str">
+        <v>24</v>
+      </c>
+      <c r="G112" t="str">
+        <v>24</v>
+      </c>
+      <c r="H112" t="str">
+        <v>0</v>
+      </c>
+      <c r="I112" t="str">
+        <v>/in-port/5327</v>
+      </c>
+      <c r="J112" t="str">
+        <v>/arrivals/5327</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>6344</v>
+      </c>
+      <c r="B113" t="str">
+        <v>ABERDEEN</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E113" t="str">
+        <v>2</v>
+      </c>
+      <c r="F113" t="str">
+        <v>0</v>
+      </c>
+      <c r="G113" t="str">
+        <v>0</v>
+      </c>
+      <c r="H113" t="str">
+        <v>2</v>
+      </c>
+      <c r="I113" t="str">
+        <v>/in-port/6344</v>
+      </c>
+      <c r="J113" t="str">
+        <v>/arrivals/6344</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>83</v>
+      </c>
+      <c r="B114" t="str">
+        <v>ABERDEEN</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D114" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E114" t="str">
+        <v>40</v>
+      </c>
+      <c r="F114" t="str">
+        <v>27</v>
+      </c>
+      <c r="G114" t="str">
+        <v>32</v>
+      </c>
+      <c r="H114" t="str">
+        <v>11</v>
+      </c>
+      <c r="I114" t="str">
+        <v>/in-port/83</v>
+      </c>
+      <c r="J114" t="str">
+        <v>/arrivals/83</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>2454</v>
+      </c>
+      <c r="B115" t="str">
+        <v>ABERDEEN ANCH</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Anchorage</v>
+      </c>
+      <c r="D115" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E115" t="str">
+        <v>3</v>
+      </c>
+      <c r="F115" t="str">
+        <v>0</v>
+      </c>
+      <c r="G115" t="str">
+        <v>1</v>
+      </c>
+      <c r="H115" t="str">
+        <v>1</v>
+      </c>
+      <c r="I115" t="str">
+        <v>/in-port/2454</v>
+      </c>
+      <c r="J115" t="str">
+        <v>/arrivals/2454</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>1537</v>
+      </c>
+      <c r="B116" t="str">
+        <v>ABERDOUR</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D116" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E116" t="str">
+        <v>0</v>
+      </c>
+      <c r="F116" t="str">
+        <v>0</v>
+      </c>
+      <c r="G116" t="str">
+        <v>0</v>
+      </c>
+      <c r="H116" t="str">
+        <v>0</v>
+      </c>
+      <c r="I116" t="str">
+        <v>/in-port/1537</v>
+      </c>
+      <c r="J116" t="str">
+        <v>/arrivals/1537</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>3337</v>
+      </c>
+      <c r="B117" t="str">
+        <v>ABIDJAN</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D117" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E117" t="str">
+        <v>19</v>
+      </c>
+      <c r="F117" t="str">
+        <v>10</v>
+      </c>
+      <c r="G117" t="str">
+        <v>5</v>
+      </c>
+      <c r="H117" t="str">
+        <v>28</v>
+      </c>
+      <c r="I117" t="str">
+        <v>/in-port/3337</v>
+      </c>
+      <c r="J117" t="str">
+        <v>/arrivals/3337</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>5426</v>
+      </c>
+      <c r="B118" t="str">
+        <v>ABRA DE ILOG</v>
+      </c>
+      <c r="C118" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D118" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E118" t="str">
+        <v>0</v>
+      </c>
+      <c r="F118" t="str">
+        <v>11</v>
+      </c>
+      <c r="G118" t="str">
+        <v>11</v>
+      </c>
+      <c r="H118" t="str">
+        <v>3</v>
+      </c>
+      <c r="I118" t="str">
+        <v>/in-port/5426</v>
+      </c>
+      <c r="J118" t="str">
+        <v>/arrivals/5426</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>5642</v>
+      </c>
+      <c r="B119" t="str">
+        <v>ABRUKA</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D119" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E119" t="str">
+        <v>0</v>
+      </c>
+      <c r="F119" t="str">
+        <v>0</v>
+      </c>
+      <c r="G119" t="str">
+        <v>0</v>
+      </c>
+      <c r="H119" t="str">
+        <v>0</v>
+      </c>
+      <c r="I119" t="str">
+        <v>/in-port/5642</v>
+      </c>
+      <c r="J119" t="str">
+        <v>/arrivals/5642</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>5805</v>
+      </c>
+      <c r="B120" t="str">
+        <v>ABSHERON</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D120" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E120" t="str">
+        <v>0</v>
+      </c>
+      <c r="F120" t="str">
+        <v>0</v>
+      </c>
+      <c r="G120" t="str">
+        <v>1</v>
+      </c>
+      <c r="H120" t="str">
+        <v>0</v>
+      </c>
+      <c r="I120" t="str">
+        <v>/in-port/5805</v>
+      </c>
+      <c r="J120" t="str">
+        <v>/arrivals/5805</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>3181</v>
+      </c>
+      <c r="B121" t="str">
+        <v>ABU CHOSOUN</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D121" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E121" t="str">
+        <v>0</v>
+      </c>
+      <c r="F121" t="str">
+        <v>0</v>
+      </c>
+      <c r="G121" t="str">
+        <v>0</v>
+      </c>
+      <c r="H121" t="str">
+        <v>0</v>
+      </c>
+      <c r="I121" t="str">
+        <v>/in-port/3181</v>
+      </c>
+      <c r="J121" t="str">
+        <v>/arrivals/3181</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>84</v>
+      </c>
+      <c r="B122" t="str">
+        <v>ABU DHABI</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D122" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E122" t="str">
+        <v>67</v>
+      </c>
+      <c r="F122" t="str">
+        <v>34</v>
+      </c>
+      <c r="G122" t="str">
+        <v>41</v>
+      </c>
+      <c r="H122" t="str">
+        <v>21</v>
+      </c>
+      <c r="I122" t="str">
+        <v>/in-port/84</v>
+      </c>
+      <c r="J122" t="str">
+        <v>/arrivals/84</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>5853</v>
+      </c>
+      <c r="B123" t="str">
+        <v>ABU FULUS</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D123" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E123" t="str">
+        <v>2</v>
+      </c>
+      <c r="F123" t="str">
+        <v>1</v>
+      </c>
+      <c r="G123" t="str">
+        <v>0</v>
+      </c>
+      <c r="H123" t="str">
+        <v>1</v>
+      </c>
+      <c r="I123" t="str">
+        <v>/in-port/5853</v>
+      </c>
+      <c r="J123" t="str">
+        <v>/arrivals/5853</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>3599</v>
+      </c>
+      <c r="B124" t="str">
+        <v>ABU MUSA</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D124" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E124" t="str">
+        <v>2</v>
+      </c>
+      <c r="F124" t="str">
+        <v>2</v>
+      </c>
+      <c r="G124" t="str">
+        <v>2</v>
+      </c>
+      <c r="H124" t="str">
+        <v>2</v>
+      </c>
+      <c r="I124" t="str">
+        <v>/in-port/3599</v>
+      </c>
+      <c r="J124" t="str">
+        <v>/arrivals/3599</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>3173</v>
+      </c>
+      <c r="B125" t="str">
+        <v>ABU QIR</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D125" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E125" t="str">
+        <v>9</v>
+      </c>
+      <c r="F125" t="str">
+        <v>1</v>
+      </c>
+      <c r="G125" t="str">
+        <v>2</v>
+      </c>
+      <c r="H125" t="str">
+        <v>11</v>
+      </c>
+      <c r="I125" t="str">
+        <v>/in-port/3173</v>
+      </c>
+      <c r="J125" t="str">
+        <v>/arrivals/3173</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>4856</v>
+      </c>
+      <c r="B126" t="str">
+        <v>ABURATO</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D126" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E126" t="str">
+        <v>0</v>
+      </c>
+      <c r="F126" t="str">
+        <v>0</v>
+      </c>
+      <c r="G126" t="str">
+        <v>0</v>
+      </c>
+      <c r="H126" t="str">
+        <v>0</v>
+      </c>
+      <c r="I126" t="str">
+        <v>/in-port/4856</v>
+      </c>
+      <c r="J126" t="str">
+        <v>/arrivals/4856</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>4696</v>
+      </c>
+      <c r="B127" t="str">
+        <v>ABURATSU</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D127" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E127" t="str">
+        <v>1</v>
+      </c>
+      <c r="F127" t="str">
+        <v>0</v>
+      </c>
+      <c r="G127" t="str">
+        <v>0</v>
+      </c>
+      <c r="H127" t="str">
+        <v>0</v>
+      </c>
+      <c r="I127" t="str">
+        <v>/in-port/4696</v>
+      </c>
+      <c r="J127" t="str">
+        <v>/arrivals/4696</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>6089</v>
+      </c>
+      <c r="B128" t="str">
+        <v>ACADIAN CONTRACTORS</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D128" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E128" t="str">
+        <v>0</v>
+      </c>
+      <c r="F128" t="str">
+        <v>0</v>
+      </c>
+      <c r="G128" t="str">
+        <v>0</v>
+      </c>
+      <c r="H128" t="str">
+        <v>0</v>
+      </c>
+      <c r="I128" t="str">
+        <v>/in-port/6089</v>
+      </c>
+      <c r="J128" t="str">
+        <v>/arrivals/6089</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>7155</v>
+      </c>
+      <c r="B129" t="str">
+        <v>ACAJUTLA</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D129" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E129" t="str">
+        <v>4</v>
+      </c>
+      <c r="F129" t="str">
+        <v>2</v>
+      </c>
+      <c r="G129" t="str">
+        <v>2</v>
+      </c>
+      <c r="H129" t="str">
+        <v>7</v>
+      </c>
+      <c r="I129" t="str">
+        <v>/in-port/7155</v>
+      </c>
+      <c r="J129" t="str">
+        <v>/arrivals/7155</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>6616</v>
+      </c>
+      <c r="B130" t="str">
+        <v>ACAPULCO</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D130" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E130" t="str">
+        <v>1</v>
+      </c>
+      <c r="F130" t="str">
+        <v>0</v>
+      </c>
+      <c r="G130" t="str">
+        <v>0</v>
+      </c>
+      <c r="H130" t="str">
+        <v>0</v>
+      </c>
+      <c r="I130" t="str">
+        <v>/in-port/6616</v>
+      </c>
+      <c r="J130" t="str">
+        <v>/arrivals/6616</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>3338</v>
+      </c>
+      <c r="B131" t="str">
+        <v>ACCRA</v>
+      </c>
+      <c r="C131" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D131" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E131" t="str">
+        <v>0</v>
+      </c>
+      <c r="F131" t="str">
+        <v>0</v>
+      </c>
+      <c r="G131" t="str">
+        <v>0</v>
+      </c>
+      <c r="H131" t="str">
+        <v>0</v>
+      </c>
+      <c r="I131" t="str">
+        <v>/in-port/3338</v>
+      </c>
+      <c r="J131" t="str">
+        <v>/arrivals/3338</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>6767</v>
+      </c>
+      <c r="B132" t="str">
+        <v>ACHAO</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D132" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E132" t="str">
+        <v>0</v>
+      </c>
+      <c r="F132" t="str">
+        <v>0</v>
+      </c>
+      <c r="G132" t="str">
+        <v>0</v>
+      </c>
+      <c r="H132" t="str">
+        <v>0</v>
+      </c>
+      <c r="I132" t="str">
+        <v>/in-port/6767</v>
+      </c>
+      <c r="J132" t="str">
+        <v>/arrivals/6767</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>777</v>
+      </c>
+      <c r="B133" t="str">
+        <v>ACHILLI</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D133" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E133" t="str">
+        <v>0</v>
+      </c>
+      <c r="F133" t="str">
+        <v>0</v>
+      </c>
+      <c r="G133" t="str">
+        <v>0</v>
+      </c>
+      <c r="H133" t="str">
+        <v>0</v>
+      </c>
+      <c r="I133" t="str">
+        <v>/in-port/777</v>
+      </c>
+      <c r="J133" t="str">
+        <v>/arrivals/777</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>516</v>
+      </c>
+      <c r="B134" t="str">
+        <v>ACHILLIO</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D134" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E134" t="str">
+        <v>0</v>
+      </c>
+      <c r="F134" t="str">
+        <v>0</v>
+      </c>
+      <c r="G134" t="str">
+        <v>0</v>
+      </c>
+      <c r="H134" t="str">
+        <v>0</v>
+      </c>
+      <c r="I134" t="str">
+        <v>/in-port/516</v>
+      </c>
+      <c r="J134" t="str">
+        <v>/arrivals/516</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>528</v>
+      </c>
+      <c r="B135" t="str">
+        <v>ACHLADI</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D135" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E135" t="str">
+        <v>0</v>
+      </c>
+      <c r="F135" t="str">
+        <v>0</v>
+      </c>
+      <c r="G135" t="str">
+        <v>0</v>
+      </c>
+      <c r="H135" t="str">
+        <v>0</v>
+      </c>
+      <c r="I135" t="str">
+        <v>/in-port/528</v>
+      </c>
+      <c r="J135" t="str">
+        <v>/arrivals/528</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>1586</v>
+      </c>
+      <c r="B136" t="str">
+        <v>ACHNACROISH</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D136" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E136" t="str">
+        <v>0</v>
+      </c>
+      <c r="F136" t="str">
+        <v>3</v>
+      </c>
+      <c r="G136" t="str">
+        <v>3</v>
+      </c>
+      <c r="H136" t="str">
+        <v>0</v>
+      </c>
+      <c r="I136" t="str">
+        <v>/in-port/1586</v>
+      </c>
+      <c r="J136" t="str">
+        <v>/arrivals/1586</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>3159</v>
+      </c>
+      <c r="B137" t="str">
+        <v>ACRE</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D137" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E137" t="str">
+        <v>4</v>
+      </c>
+      <c r="F137" t="str">
+        <v>0</v>
+      </c>
+      <c r="G137" t="str">
+        <v>0</v>
+      </c>
+      <c r="H137" t="str">
+        <v>0</v>
+      </c>
+      <c r="I137" t="str">
+        <v>/in-port/3159</v>
+      </c>
+      <c r="J137" t="str">
+        <v>/arrivals/3159</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>6234</v>
+      </c>
+      <c r="B138" t="str">
+        <v>ADAK</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D138" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E138" t="str">
+        <v>0</v>
+      </c>
+      <c r="F138" t="str">
+        <v>0</v>
+      </c>
+      <c r="G138" t="str">
+        <v>0</v>
+      </c>
+      <c r="H138" t="str">
+        <v>0</v>
+      </c>
+      <c r="I138" t="str">
+        <v>/in-port/6234</v>
+      </c>
+      <c r="J138" t="str">
+        <v>/arrivals/6234</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>3813</v>
+      </c>
+      <c r="B139" t="str">
+        <v>ADELAIDE</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D139" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E139" t="str">
+        <v>123</v>
+      </c>
+      <c r="F139" t="str">
+        <v>23</v>
+      </c>
+      <c r="G139" t="str">
+        <v>23</v>
+      </c>
+      <c r="H139" t="str">
+        <v>11</v>
+      </c>
+      <c r="I139" t="str">
+        <v>/in-port/3813</v>
+      </c>
+      <c r="J139" t="str">
+        <v>/arrivals/3813</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>3454</v>
+      </c>
+      <c r="B140" t="str">
+        <v>ADEN</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D140" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E140" t="str">
+        <v>0</v>
+      </c>
+      <c r="F140" t="str">
+        <v>0</v>
+      </c>
+      <c r="G140" t="str">
+        <v>0</v>
+      </c>
+      <c r="H140" t="str">
+        <v>15</v>
+      </c>
+      <c r="I140" t="str">
+        <v>/in-port/3454</v>
+      </c>
+      <c r="J140" t="str">
+        <v>/arrivals/3454</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>3053</v>
+      </c>
+      <c r="B141" t="str">
+        <v>ADLER</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D141" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E141" t="str">
+        <v>1</v>
+      </c>
+      <c r="F141" t="str">
+        <v>0</v>
+      </c>
+      <c r="G141" t="str">
+        <v>0</v>
+      </c>
+      <c r="H141" t="str">
+        <v>0</v>
+      </c>
+      <c r="I141" t="str">
+        <v>/in-port/3053</v>
+      </c>
+      <c r="J141" t="str">
+        <v>/arrivals/3053</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>5766</v>
+      </c>
+      <c r="B142" t="str">
+        <v>ADONY</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D142" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E142" t="str">
+        <v>0</v>
+      </c>
+      <c r="F142" t="str">
+        <v>0</v>
+      </c>
+      <c r="G142" t="str">
+        <v>0</v>
+      </c>
+      <c r="H142" t="str">
+        <v>1</v>
+      </c>
+      <c r="I142" t="str">
+        <v>/in-port/5766</v>
+      </c>
+      <c r="J142" t="str">
+        <v>/arrivals/5766</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>1895</v>
+      </c>
+      <c r="B143" t="str">
+        <v>ADRA</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D143" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E143" t="str">
+        <v>4</v>
+      </c>
+      <c r="F143" t="str">
+        <v>0</v>
+      </c>
+      <c r="G143" t="str">
+        <v>2</v>
+      </c>
+      <c r="H143" t="str">
+        <v>0</v>
+      </c>
+      <c r="I143" t="str">
+        <v>/in-port/1895</v>
+      </c>
+      <c r="J143" t="str">
+        <v>/arrivals/1895</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>2738</v>
+      </c>
+      <c r="B144" t="str">
+        <v>ADRIA</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D144" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E144" t="str">
+        <v>0</v>
+      </c>
+      <c r="F144" t="str">
+        <v>0</v>
+      </c>
+      <c r="G144" t="str">
+        <v>0</v>
+      </c>
+      <c r="H144" t="str">
+        <v>0</v>
+      </c>
+      <c r="I144" t="str">
+        <v>/in-port/2738</v>
+      </c>
+      <c r="J144" t="str">
+        <v>/arrivals/2738</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>5</v>
+      </c>
+      <c r="B145" t="str">
+        <v>AEGINA</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D145" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E145" t="str">
+        <v>10</v>
+      </c>
+      <c r="F145" t="str">
+        <v>34</v>
+      </c>
+      <c r="G145" t="str">
+        <v>40</v>
+      </c>
+      <c r="H145" t="str">
+        <v>8</v>
+      </c>
+      <c r="I145" t="str">
+        <v>/in-port/5</v>
+      </c>
+      <c r="J145" t="str">
+        <v>/arrivals/5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>793</v>
+      </c>
+      <c r="B146" t="str">
+        <v>AEGINA BOATYARD</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D146" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E146" t="str">
+        <v>6</v>
+      </c>
+      <c r="F146" t="str">
+        <v>0</v>
+      </c>
+      <c r="G146" t="str">
+        <v>2</v>
+      </c>
+      <c r="H146" t="str">
+        <v>0</v>
+      </c>
+      <c r="I146" t="str">
+        <v>/in-port/793</v>
+      </c>
+      <c r="J146" t="str">
+        <v>/arrivals/793</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>636</v>
+      </c>
+      <c r="B147" t="str">
+        <v>AEGINA MAR</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D147" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E147" t="str">
+        <v>0</v>
+      </c>
+      <c r="F147" t="str">
+        <v>0</v>
+      </c>
+      <c r="G147" t="str">
+        <v>0</v>
+      </c>
+      <c r="H147" t="str">
+        <v>0</v>
+      </c>
+      <c r="I147" t="str">
+        <v>/in-port/636</v>
+      </c>
+      <c r="J147" t="str">
+        <v>/arrivals/636</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>5653</v>
+      </c>
+      <c r="B148" t="str">
+        <v>AEGNA</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D148" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E148" t="str">
+        <v>0</v>
+      </c>
+      <c r="F148" t="str">
+        <v>1</v>
+      </c>
+      <c r="G148" t="str">
+        <v>1</v>
+      </c>
+      <c r="H148" t="str">
+        <v>0</v>
+      </c>
+      <c r="I148" t="str">
+        <v>/in-port/5653</v>
+      </c>
+      <c r="J148" t="str">
+        <v>/arrivals/5653</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>2612</v>
+      </c>
+      <c r="B149" t="str">
+        <v>AEROSKOBING</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D149" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E149" t="str">
+        <v>19</v>
+      </c>
+      <c r="F149" t="str">
+        <v>25</v>
+      </c>
+      <c r="G149" t="str">
+        <v>19</v>
+      </c>
+      <c r="H149" t="str">
+        <v>2</v>
+      </c>
+      <c r="I149" t="str">
+        <v>/in-port/2612</v>
+      </c>
+      <c r="J149" t="str">
+        <v>/arrivals/2612</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>778</v>
+      </c>
+      <c r="B150" t="str">
+        <v>AETOS</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D150" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E150" t="str">
+        <v>0</v>
+      </c>
+      <c r="F150" t="str">
+        <v>3</v>
+      </c>
+      <c r="G150" t="str">
+        <v>3</v>
+      </c>
+      <c r="H150" t="str">
+        <v>1</v>
+      </c>
+      <c r="I150" t="str">
+        <v>/in-port/778</v>
+      </c>
+      <c r="J150" t="str">
+        <v>/arrivals/778</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>3578</v>
+      </c>
+      <c r="B151" t="str">
+        <v>AFTAB</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D151" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E151" t="str">
+        <v>0</v>
+      </c>
+      <c r="F151" t="str">
+        <v>0</v>
+      </c>
+      <c r="G151" t="str">
+        <v>2</v>
+      </c>
+      <c r="H151" t="str">
+        <v>0</v>
+      </c>
+      <c r="I151" t="str">
+        <v>/in-port/3578</v>
+      </c>
+      <c r="J151" t="str">
+        <v>/arrivals/3578</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>3303</v>
+      </c>
+      <c r="B152" t="str">
+        <v>AGADIR</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D152" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E152" t="str">
+        <v>12</v>
+      </c>
+      <c r="F152" t="str">
+        <v>3</v>
+      </c>
+      <c r="G152" t="str">
+        <v>2</v>
+      </c>
+      <c r="H152" t="str">
+        <v>10</v>
+      </c>
+      <c r="I152" t="str">
+        <v>/in-port/3303</v>
+      </c>
+      <c r="J152" t="str">
+        <v>/arrivals/3303</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>2628</v>
+      </c>
+      <c r="B153" t="str">
+        <v>AABENRAA</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D153" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E153" t="str">
+        <v>41</v>
+      </c>
+      <c r="F153" t="str">
+        <v>5</v>
+      </c>
+      <c r="G153" t="str">
+        <v>1</v>
+      </c>
+      <c r="H153" t="str">
+        <v>1</v>
+      </c>
+      <c r="I153" t="str">
+        <v>/in-port/2628</v>
+      </c>
+      <c r="J153" t="str">
+        <v>/arrivals/2628</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>5307</v>
+      </c>
+      <c r="B154" t="str">
+        <v>AAGOTNES</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D154" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E154" t="str">
+        <v>3</v>
+      </c>
+      <c r="F154" t="str">
+        <v>0</v>
+      </c>
+      <c r="G154" t="str">
+        <v>0</v>
+      </c>
+      <c r="H154" t="str">
+        <v>0</v>
+      </c>
+      <c r="I154" t="str">
+        <v>/in-port/5307</v>
+      </c>
+      <c r="J154" t="str">
+        <v>/arrivals/5307</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>5175</v>
+      </c>
+      <c r="B155" t="str">
+        <v>AAHEIM</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D155" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E155" t="str">
+        <v>0</v>
+      </c>
+      <c r="F155" t="str">
+        <v>0</v>
+      </c>
+      <c r="G155" t="str">
+        <v>0</v>
+      </c>
+      <c r="H155" t="str">
+        <v>1</v>
+      </c>
+      <c r="I155" t="str">
+        <v>/in-port/5175</v>
+      </c>
+      <c r="J155" t="str">
+        <v>/arrivals/5175</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>80</v>
+      </c>
+      <c r="B156" t="str">
+        <v>AALBORG</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D156" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E156" t="str">
+        <v>57</v>
+      </c>
+      <c r="F156" t="str">
+        <v>13</v>
+      </c>
+      <c r="G156" t="str">
+        <v>11</v>
+      </c>
+      <c r="H156" t="str">
+        <v>6</v>
+      </c>
+      <c r="I156" t="str">
+        <v>/in-port/80</v>
+      </c>
+      <c r="J156" t="str">
+        <v>/arrivals/80</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>885</v>
+      </c>
+      <c r="B157" t="str">
+        <v>AALSMEER</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D157" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E157" t="str">
+        <v>24</v>
+      </c>
+      <c r="F157" t="str">
+        <v>14</v>
+      </c>
+      <c r="G157" t="str">
+        <v>15</v>
+      </c>
+      <c r="H157" t="str">
+        <v>0</v>
+      </c>
+      <c r="I157" t="str">
+        <v>/in-port/885</v>
+      </c>
+      <c r="J157" t="str">
+        <v>/arrivals/885</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>990</v>
+      </c>
+      <c r="B158" t="str">
+        <v>AALST</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D158" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E158" t="str">
+        <v>1</v>
+      </c>
+      <c r="F158" t="str">
+        <v>0</v>
+      </c>
+      <c r="G158" t="str">
+        <v>0</v>
+      </c>
+      <c r="H158" t="str">
+        <v>3</v>
+      </c>
+      <c r="I158" t="str">
+        <v>/in-port/990</v>
+      </c>
+      <c r="J158" t="str">
+        <v>/arrivals/990</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>82</v>
+      </c>
+      <c r="B159" t="str">
+        <v>AARHUS</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D159" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E159" t="str">
+        <v>125</v>
+      </c>
+      <c r="F159" t="str">
+        <v>38</v>
+      </c>
+      <c r="G159" t="str">
+        <v>38</v>
+      </c>
+      <c r="H159" t="str">
+        <v>3</v>
+      </c>
+      <c r="I159" t="str">
+        <v>/in-port/82</v>
+      </c>
+      <c r="J159" t="str">
+        <v>/arrivals/82</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>3592</v>
+      </c>
+      <c r="B160" t="str">
+        <v>ABADAN</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D160" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E160" t="str">
+        <v>3</v>
+      </c>
+      <c r="F160" t="str">
+        <v>0</v>
+      </c>
+      <c r="G160" t="str">
+        <v>0</v>
+      </c>
+      <c r="H160" t="str">
+        <v>0</v>
+      </c>
+      <c r="I160" t="str">
+        <v>/in-port/3592</v>
+      </c>
+      <c r="J160" t="str">
+        <v>/arrivals/3592</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>4523</v>
+      </c>
+      <c r="B161" t="str">
+        <v>ABASHIRI</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D161" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E161" t="str">
+        <v>0</v>
+      </c>
+      <c r="F161" t="str">
+        <v>0</v>
+      </c>
+      <c r="G161" t="str">
+        <v>0</v>
+      </c>
+      <c r="H161" t="str">
+        <v>0</v>
+      </c>
+      <c r="I161" t="str">
+        <v>/in-port/4523</v>
+      </c>
+      <c r="J161" t="str">
+        <v>/arrivals/4523</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>5327</v>
+      </c>
+      <c r="B162" t="str">
+        <v>ABELNES</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D162" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E162" t="str">
+        <v>4</v>
+      </c>
+      <c r="F162" t="str">
+        <v>24</v>
+      </c>
+      <c r="G162" t="str">
+        <v>24</v>
+      </c>
+      <c r="H162" t="str">
+        <v>0</v>
+      </c>
+      <c r="I162" t="str">
+        <v>/in-port/5327</v>
+      </c>
+      <c r="J162" t="str">
+        <v>/arrivals/5327</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>6344</v>
+      </c>
+      <c r="B163" t="str">
+        <v>ABERDEEN</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D163" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E163" t="str">
+        <v>2</v>
+      </c>
+      <c r="F163" t="str">
+        <v>0</v>
+      </c>
+      <c r="G163" t="str">
+        <v>0</v>
+      </c>
+      <c r="H163" t="str">
+        <v>2</v>
+      </c>
+      <c r="I163" t="str">
+        <v>/in-port/6344</v>
+      </c>
+      <c r="J163" t="str">
+        <v>/arrivals/6344</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>83</v>
+      </c>
+      <c r="B164" t="str">
+        <v>ABERDEEN</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D164" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E164" t="str">
+        <v>40</v>
+      </c>
+      <c r="F164" t="str">
+        <v>27</v>
+      </c>
+      <c r="G164" t="str">
+        <v>32</v>
+      </c>
+      <c r="H164" t="str">
+        <v>11</v>
+      </c>
+      <c r="I164" t="str">
+        <v>/in-port/83</v>
+      </c>
+      <c r="J164" t="str">
+        <v>/arrivals/83</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>2454</v>
+      </c>
+      <c r="B165" t="str">
+        <v>ABERDEEN ANCH</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Anchorage</v>
+      </c>
+      <c r="D165" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E165" t="str">
+        <v>3</v>
+      </c>
+      <c r="F165" t="str">
+        <v>0</v>
+      </c>
+      <c r="G165" t="str">
+        <v>1</v>
+      </c>
+      <c r="H165" t="str">
+        <v>1</v>
+      </c>
+      <c r="I165" t="str">
+        <v>/in-port/2454</v>
+      </c>
+      <c r="J165" t="str">
+        <v>/arrivals/2454</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>1537</v>
+      </c>
+      <c r="B166" t="str">
+        <v>ABERDOUR</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D166" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E166" t="str">
+        <v>0</v>
+      </c>
+      <c r="F166" t="str">
+        <v>0</v>
+      </c>
+      <c r="G166" t="str">
+        <v>0</v>
+      </c>
+      <c r="H166" t="str">
+        <v>0</v>
+      </c>
+      <c r="I166" t="str">
+        <v>/in-port/1537</v>
+      </c>
+      <c r="J166" t="str">
+        <v>/arrivals/1537</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>3337</v>
+      </c>
+      <c r="B167" t="str">
+        <v>ABIDJAN</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D167" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E167" t="str">
+        <v>19</v>
+      </c>
+      <c r="F167" t="str">
+        <v>10</v>
+      </c>
+      <c r="G167" t="str">
+        <v>5</v>
+      </c>
+      <c r="H167" t="str">
+        <v>28</v>
+      </c>
+      <c r="I167" t="str">
+        <v>/in-port/3337</v>
+      </c>
+      <c r="J167" t="str">
+        <v>/arrivals/3337</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>5426</v>
+      </c>
+      <c r="B168" t="str">
+        <v>ABRA DE ILOG</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D168" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E168" t="str">
+        <v>0</v>
+      </c>
+      <c r="F168" t="str">
+        <v>11</v>
+      </c>
+      <c r="G168" t="str">
+        <v>11</v>
+      </c>
+      <c r="H168" t="str">
+        <v>3</v>
+      </c>
+      <c r="I168" t="str">
+        <v>/in-port/5426</v>
+      </c>
+      <c r="J168" t="str">
+        <v>/arrivals/5426</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>5642</v>
+      </c>
+      <c r="B169" t="str">
+        <v>ABRUKA</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D169" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E169" t="str">
+        <v>0</v>
+      </c>
+      <c r="F169" t="str">
+        <v>0</v>
+      </c>
+      <c r="G169" t="str">
+        <v>0</v>
+      </c>
+      <c r="H169" t="str">
+        <v>0</v>
+      </c>
+      <c r="I169" t="str">
+        <v>/in-port/5642</v>
+      </c>
+      <c r="J169" t="str">
+        <v>/arrivals/5642</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>5805</v>
+      </c>
+      <c r="B170" t="str">
+        <v>ABSHERON</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D170" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E170" t="str">
+        <v>0</v>
+      </c>
+      <c r="F170" t="str">
+        <v>0</v>
+      </c>
+      <c r="G170" t="str">
+        <v>1</v>
+      </c>
+      <c r="H170" t="str">
+        <v>0</v>
+      </c>
+      <c r="I170" t="str">
+        <v>/in-port/5805</v>
+      </c>
+      <c r="J170" t="str">
+        <v>/arrivals/5805</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>3181</v>
+      </c>
+      <c r="B171" t="str">
+        <v>ABU CHOSOUN</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D171" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E171" t="str">
+        <v>0</v>
+      </c>
+      <c r="F171" t="str">
+        <v>0</v>
+      </c>
+      <c r="G171" t="str">
+        <v>0</v>
+      </c>
+      <c r="H171" t="str">
+        <v>0</v>
+      </c>
+      <c r="I171" t="str">
+        <v>/in-port/3181</v>
+      </c>
+      <c r="J171" t="str">
+        <v>/arrivals/3181</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>84</v>
+      </c>
+      <c r="B172" t="str">
+        <v>ABU DHABI</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D172" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E172" t="str">
+        <v>67</v>
+      </c>
+      <c r="F172" t="str">
+        <v>34</v>
+      </c>
+      <c r="G172" t="str">
+        <v>41</v>
+      </c>
+      <c r="H172" t="str">
+        <v>21</v>
+      </c>
+      <c r="I172" t="str">
+        <v>/in-port/84</v>
+      </c>
+      <c r="J172" t="str">
+        <v>/arrivals/84</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>5853</v>
+      </c>
+      <c r="B173" t="str">
+        <v>ABU FULUS</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D173" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E173" t="str">
+        <v>2</v>
+      </c>
+      <c r="F173" t="str">
+        <v>1</v>
+      </c>
+      <c r="G173" t="str">
+        <v>0</v>
+      </c>
+      <c r="H173" t="str">
+        <v>1</v>
+      </c>
+      <c r="I173" t="str">
+        <v>/in-port/5853</v>
+      </c>
+      <c r="J173" t="str">
+        <v>/arrivals/5853</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>3599</v>
+      </c>
+      <c r="B174" t="str">
+        <v>ABU MUSA</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D174" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E174" t="str">
+        <v>2</v>
+      </c>
+      <c r="F174" t="str">
+        <v>2</v>
+      </c>
+      <c r="G174" t="str">
+        <v>2</v>
+      </c>
+      <c r="H174" t="str">
+        <v>2</v>
+      </c>
+      <c r="I174" t="str">
+        <v>/in-port/3599</v>
+      </c>
+      <c r="J174" t="str">
+        <v>/arrivals/3599</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>3173</v>
+      </c>
+      <c r="B175" t="str">
+        <v>ABU QIR</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D175" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E175" t="str">
+        <v>9</v>
+      </c>
+      <c r="F175" t="str">
+        <v>1</v>
+      </c>
+      <c r="G175" t="str">
+        <v>2</v>
+      </c>
+      <c r="H175" t="str">
+        <v>11</v>
+      </c>
+      <c r="I175" t="str">
+        <v>/in-port/3173</v>
+      </c>
+      <c r="J175" t="str">
+        <v>/arrivals/3173</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>4856</v>
+      </c>
+      <c r="B176" t="str">
+        <v>ABURATO</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D176" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E176" t="str">
+        <v>0</v>
+      </c>
+      <c r="F176" t="str">
+        <v>0</v>
+      </c>
+      <c r="G176" t="str">
+        <v>0</v>
+      </c>
+      <c r="H176" t="str">
+        <v>0</v>
+      </c>
+      <c r="I176" t="str">
+        <v>/in-port/4856</v>
+      </c>
+      <c r="J176" t="str">
+        <v>/arrivals/4856</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>4696</v>
+      </c>
+      <c r="B177" t="str">
+        <v>ABURATSU</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D177" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E177" t="str">
+        <v>1</v>
+      </c>
+      <c r="F177" t="str">
+        <v>0</v>
+      </c>
+      <c r="G177" t="str">
+        <v>0</v>
+      </c>
+      <c r="H177" t="str">
+        <v>0</v>
+      </c>
+      <c r="I177" t="str">
+        <v>/in-port/4696</v>
+      </c>
+      <c r="J177" t="str">
+        <v>/arrivals/4696</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>6089</v>
+      </c>
+      <c r="B178" t="str">
+        <v>ACADIAN CONTRACTORS</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D178" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E178" t="str">
+        <v>0</v>
+      </c>
+      <c r="F178" t="str">
+        <v>0</v>
+      </c>
+      <c r="G178" t="str">
+        <v>0</v>
+      </c>
+      <c r="H178" t="str">
+        <v>0</v>
+      </c>
+      <c r="I178" t="str">
+        <v>/in-port/6089</v>
+      </c>
+      <c r="J178" t="str">
+        <v>/arrivals/6089</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>7155</v>
+      </c>
+      <c r="B179" t="str">
+        <v>ACAJUTLA</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D179" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E179" t="str">
+        <v>4</v>
+      </c>
+      <c r="F179" t="str">
+        <v>2</v>
+      </c>
+      <c r="G179" t="str">
+        <v>2</v>
+      </c>
+      <c r="H179" t="str">
+        <v>7</v>
+      </c>
+      <c r="I179" t="str">
+        <v>/in-port/7155</v>
+      </c>
+      <c r="J179" t="str">
+        <v>/arrivals/7155</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>6616</v>
+      </c>
+      <c r="B180" t="str">
+        <v>ACAPULCO</v>
+      </c>
+      <c r="C180" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D180" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E180" t="str">
+        <v>1</v>
+      </c>
+      <c r="F180" t="str">
+        <v>0</v>
+      </c>
+      <c r="G180" t="str">
+        <v>0</v>
+      </c>
+      <c r="H180" t="str">
+        <v>0</v>
+      </c>
+      <c r="I180" t="str">
+        <v>/in-port/6616</v>
+      </c>
+      <c r="J180" t="str">
+        <v>/arrivals/6616</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>3338</v>
+      </c>
+      <c r="B181" t="str">
+        <v>ACCRA</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D181" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E181" t="str">
+        <v>0</v>
+      </c>
+      <c r="F181" t="str">
+        <v>0</v>
+      </c>
+      <c r="G181" t="str">
+        <v>0</v>
+      </c>
+      <c r="H181" t="str">
+        <v>0</v>
+      </c>
+      <c r="I181" t="str">
+        <v>/in-port/3338</v>
+      </c>
+      <c r="J181" t="str">
+        <v>/arrivals/3338</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>6767</v>
+      </c>
+      <c r="B182" t="str">
+        <v>ACHAO</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D182" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E182" t="str">
+        <v>0</v>
+      </c>
+      <c r="F182" t="str">
+        <v>0</v>
+      </c>
+      <c r="G182" t="str">
+        <v>0</v>
+      </c>
+      <c r="H182" t="str">
+        <v>0</v>
+      </c>
+      <c r="I182" t="str">
+        <v>/in-port/6767</v>
+      </c>
+      <c r="J182" t="str">
+        <v>/arrivals/6767</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>777</v>
+      </c>
+      <c r="B183" t="str">
+        <v>ACHILLI</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D183" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E183" t="str">
+        <v>0</v>
+      </c>
+      <c r="F183" t="str">
+        <v>0</v>
+      </c>
+      <c r="G183" t="str">
+        <v>0</v>
+      </c>
+      <c r="H183" t="str">
+        <v>0</v>
+      </c>
+      <c r="I183" t="str">
+        <v>/in-port/777</v>
+      </c>
+      <c r="J183" t="str">
+        <v>/arrivals/777</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>516</v>
+      </c>
+      <c r="B184" t="str">
+        <v>ACHILLIO</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D184" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E184" t="str">
+        <v>0</v>
+      </c>
+      <c r="F184" t="str">
+        <v>0</v>
+      </c>
+      <c r="G184" t="str">
+        <v>0</v>
+      </c>
+      <c r="H184" t="str">
+        <v>0</v>
+      </c>
+      <c r="I184" t="str">
+        <v>/in-port/516</v>
+      </c>
+      <c r="J184" t="str">
+        <v>/arrivals/516</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>528</v>
+      </c>
+      <c r="B185" t="str">
+        <v>ACHLADI</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D185" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E185" t="str">
+        <v>0</v>
+      </c>
+      <c r="F185" t="str">
+        <v>0</v>
+      </c>
+      <c r="G185" t="str">
+        <v>0</v>
+      </c>
+      <c r="H185" t="str">
+        <v>0</v>
+      </c>
+      <c r="I185" t="str">
+        <v>/in-port/528</v>
+      </c>
+      <c r="J185" t="str">
+        <v>/arrivals/528</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>1586</v>
+      </c>
+      <c r="B186" t="str">
+        <v>ACHNACROISH</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D186" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E186" t="str">
+        <v>0</v>
+      </c>
+      <c r="F186" t="str">
+        <v>3</v>
+      </c>
+      <c r="G186" t="str">
+        <v>3</v>
+      </c>
+      <c r="H186" t="str">
+        <v>0</v>
+      </c>
+      <c r="I186" t="str">
+        <v>/in-port/1586</v>
+      </c>
+      <c r="J186" t="str">
+        <v>/arrivals/1586</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>3159</v>
+      </c>
+      <c r="B187" t="str">
+        <v>ACRE</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D187" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E187" t="str">
+        <v>4</v>
+      </c>
+      <c r="F187" t="str">
+        <v>0</v>
+      </c>
+      <c r="G187" t="str">
+        <v>0</v>
+      </c>
+      <c r="H187" t="str">
+        <v>0</v>
+      </c>
+      <c r="I187" t="str">
+        <v>/in-port/3159</v>
+      </c>
+      <c r="J187" t="str">
+        <v>/arrivals/3159</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>6234</v>
+      </c>
+      <c r="B188" t="str">
+        <v>ADAK</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D188" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E188" t="str">
+        <v>0</v>
+      </c>
+      <c r="F188" t="str">
+        <v>0</v>
+      </c>
+      <c r="G188" t="str">
+        <v>0</v>
+      </c>
+      <c r="H188" t="str">
+        <v>0</v>
+      </c>
+      <c r="I188" t="str">
+        <v>/in-port/6234</v>
+      </c>
+      <c r="J188" t="str">
+        <v>/arrivals/6234</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>3813</v>
+      </c>
+      <c r="B189" t="str">
+        <v>ADELAIDE</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D189" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E189" t="str">
+        <v>123</v>
+      </c>
+      <c r="F189" t="str">
+        <v>23</v>
+      </c>
+      <c r="G189" t="str">
+        <v>23</v>
+      </c>
+      <c r="H189" t="str">
+        <v>11</v>
+      </c>
+      <c r="I189" t="str">
+        <v>/in-port/3813</v>
+      </c>
+      <c r="J189" t="str">
+        <v>/arrivals/3813</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>3454</v>
+      </c>
+      <c r="B190" t="str">
+        <v>ADEN</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D190" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E190" t="str">
+        <v>0</v>
+      </c>
+      <c r="F190" t="str">
+        <v>0</v>
+      </c>
+      <c r="G190" t="str">
+        <v>0</v>
+      </c>
+      <c r="H190" t="str">
+        <v>15</v>
+      </c>
+      <c r="I190" t="str">
+        <v>/in-port/3454</v>
+      </c>
+      <c r="J190" t="str">
+        <v>/arrivals/3454</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>3053</v>
+      </c>
+      <c r="B191" t="str">
+        <v>ADLER</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D191" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E191" t="str">
+        <v>1</v>
+      </c>
+      <c r="F191" t="str">
+        <v>0</v>
+      </c>
+      <c r="G191" t="str">
+        <v>0</v>
+      </c>
+      <c r="H191" t="str">
+        <v>0</v>
+      </c>
+      <c r="I191" t="str">
+        <v>/in-port/3053</v>
+      </c>
+      <c r="J191" t="str">
+        <v>/arrivals/3053</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>5766</v>
+      </c>
+      <c r="B192" t="str">
+        <v>ADONY</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D192" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E192" t="str">
+        <v>0</v>
+      </c>
+      <c r="F192" t="str">
+        <v>0</v>
+      </c>
+      <c r="G192" t="str">
+        <v>0</v>
+      </c>
+      <c r="H192" t="str">
+        <v>1</v>
+      </c>
+      <c r="I192" t="str">
+        <v>/in-port/5766</v>
+      </c>
+      <c r="J192" t="str">
+        <v>/arrivals/5766</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>1895</v>
+      </c>
+      <c r="B193" t="str">
+        <v>ADRA</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D193" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E193" t="str">
+        <v>4</v>
+      </c>
+      <c r="F193" t="str">
+        <v>0</v>
+      </c>
+      <c r="G193" t="str">
+        <v>2</v>
+      </c>
+      <c r="H193" t="str">
+        <v>0</v>
+      </c>
+      <c r="I193" t="str">
+        <v>/in-port/1895</v>
+      </c>
+      <c r="J193" t="str">
+        <v>/arrivals/1895</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>2738</v>
+      </c>
+      <c r="B194" t="str">
+        <v>ADRIA</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D194" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E194" t="str">
+        <v>0</v>
+      </c>
+      <c r="F194" t="str">
+        <v>0</v>
+      </c>
+      <c r="G194" t="str">
+        <v>0</v>
+      </c>
+      <c r="H194" t="str">
+        <v>0</v>
+      </c>
+      <c r="I194" t="str">
+        <v>/in-port/2738</v>
+      </c>
+      <c r="J194" t="str">
+        <v>/arrivals/2738</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>5</v>
+      </c>
+      <c r="B195" t="str">
+        <v>AEGINA</v>
+      </c>
+      <c r="C195" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D195" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E195" t="str">
+        <v>10</v>
+      </c>
+      <c r="F195" t="str">
+        <v>34</v>
+      </c>
+      <c r="G195" t="str">
+        <v>40</v>
+      </c>
+      <c r="H195" t="str">
+        <v>8</v>
+      </c>
+      <c r="I195" t="str">
+        <v>/in-port/5</v>
+      </c>
+      <c r="J195" t="str">
+        <v>/arrivals/5</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>793</v>
+      </c>
+      <c r="B196" t="str">
+        <v>AEGINA BOATYARD</v>
+      </c>
+      <c r="C196" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D196" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E196" t="str">
+        <v>6</v>
+      </c>
+      <c r="F196" t="str">
+        <v>0</v>
+      </c>
+      <c r="G196" t="str">
+        <v>2</v>
+      </c>
+      <c r="H196" t="str">
+        <v>0</v>
+      </c>
+      <c r="I196" t="str">
+        <v>/in-port/793</v>
+      </c>
+      <c r="J196" t="str">
+        <v>/arrivals/793</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>636</v>
+      </c>
+      <c r="B197" t="str">
+        <v>AEGINA MAR</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D197" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E197" t="str">
+        <v>0</v>
+      </c>
+      <c r="F197" t="str">
+        <v>0</v>
+      </c>
+      <c r="G197" t="str">
+        <v>0</v>
+      </c>
+      <c r="H197" t="str">
+        <v>0</v>
+      </c>
+      <c r="I197" t="str">
+        <v>/in-port/636</v>
+      </c>
+      <c r="J197" t="str">
+        <v>/arrivals/636</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>5653</v>
+      </c>
+      <c r="B198" t="str">
+        <v>AEGNA</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D198" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E198" t="str">
+        <v>0</v>
+      </c>
+      <c r="F198" t="str">
+        <v>1</v>
+      </c>
+      <c r="G198" t="str">
+        <v>1</v>
+      </c>
+      <c r="H198" t="str">
+        <v>0</v>
+      </c>
+      <c r="I198" t="str">
+        <v>/in-port/5653</v>
+      </c>
+      <c r="J198" t="str">
+        <v>/arrivals/5653</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>2612</v>
+      </c>
+      <c r="B199" t="str">
+        <v>AEROSKOBING</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D199" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E199" t="str">
+        <v>19</v>
+      </c>
+      <c r="F199" t="str">
+        <v>25</v>
+      </c>
+      <c r="G199" t="str">
+        <v>19</v>
+      </c>
+      <c r="H199" t="str">
+        <v>2</v>
+      </c>
+      <c r="I199" t="str">
+        <v>/in-port/2612</v>
+      </c>
+      <c r="J199" t="str">
+        <v>/arrivals/2612</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>778</v>
+      </c>
+      <c r="B200" t="str">
+        <v>AETOS</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D200" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E200" t="str">
+        <v>0</v>
+      </c>
+      <c r="F200" t="str">
+        <v>3</v>
+      </c>
+      <c r="G200" t="str">
+        <v>3</v>
+      </c>
+      <c r="H200" t="str">
+        <v>1</v>
+      </c>
+      <c r="I200" t="str">
+        <v>/in-port/778</v>
+      </c>
+      <c r="J200" t="str">
+        <v>/arrivals/778</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>3578</v>
+      </c>
+      <c r="B201" t="str">
+        <v>AFTAB</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D201" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E201" t="str">
+        <v>0</v>
+      </c>
+      <c r="F201" t="str">
+        <v>0</v>
+      </c>
+      <c r="G201" t="str">
+        <v>2</v>
+      </c>
+      <c r="H201" t="str">
+        <v>0</v>
+      </c>
+      <c r="I201" t="str">
+        <v>/in-port/3578</v>
+      </c>
+      <c r="J201" t="str">
+        <v>/arrivals/3578</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>3303</v>
+      </c>
+      <c r="B202" t="str">
+        <v>AGADIR</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D202" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E202" t="str">
+        <v>12</v>
+      </c>
+      <c r="F202" t="str">
+        <v>3</v>
+      </c>
+      <c r="G202" t="str">
+        <v>2</v>
+      </c>
+      <c r="H202" t="str">
+        <v>10</v>
+      </c>
+      <c r="I202" t="str">
+        <v>/in-port/3303</v>
+      </c>
+      <c r="J202" t="str">
+        <v>/arrivals/3303</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>2628</v>
+      </c>
+      <c r="B203" t="str">
+        <v>AABENRAA</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D203" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E203" t="str">
+        <v>41</v>
+      </c>
+      <c r="F203" t="str">
+        <v>5</v>
+      </c>
+      <c r="G203" t="str">
+        <v>1</v>
+      </c>
+      <c r="H203" t="str">
+        <v>1</v>
+      </c>
+      <c r="I203" t="str">
+        <v>/in-port/2628</v>
+      </c>
+      <c r="J203" t="str">
+        <v>/arrivals/2628</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>5307</v>
+      </c>
+      <c r="B204" t="str">
+        <v>AAGOTNES</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D204" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E204" t="str">
+        <v>3</v>
+      </c>
+      <c r="F204" t="str">
+        <v>0</v>
+      </c>
+      <c r="G204" t="str">
+        <v>0</v>
+      </c>
+      <c r="H204" t="str">
+        <v>0</v>
+      </c>
+      <c r="I204" t="str">
+        <v>/in-port/5307</v>
+      </c>
+      <c r="J204" t="str">
+        <v>/arrivals/5307</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>5175</v>
+      </c>
+      <c r="B205" t="str">
+        <v>AAHEIM</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D205" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E205" t="str">
+        <v>0</v>
+      </c>
+      <c r="F205" t="str">
+        <v>0</v>
+      </c>
+      <c r="G205" t="str">
+        <v>0</v>
+      </c>
+      <c r="H205" t="str">
+        <v>1</v>
+      </c>
+      <c r="I205" t="str">
+        <v>/in-port/5175</v>
+      </c>
+      <c r="J205" t="str">
+        <v>/arrivals/5175</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>80</v>
+      </c>
+      <c r="B206" t="str">
+        <v>AALBORG</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D206" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E206" t="str">
+        <v>57</v>
+      </c>
+      <c r="F206" t="str">
+        <v>13</v>
+      </c>
+      <c r="G206" t="str">
+        <v>11</v>
+      </c>
+      <c r="H206" t="str">
+        <v>6</v>
+      </c>
+      <c r="I206" t="str">
+        <v>/in-port/80</v>
+      </c>
+      <c r="J206" t="str">
+        <v>/arrivals/80</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>885</v>
+      </c>
+      <c r="B207" t="str">
+        <v>AALSMEER</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D207" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E207" t="str">
+        <v>24</v>
+      </c>
+      <c r="F207" t="str">
+        <v>14</v>
+      </c>
+      <c r="G207" t="str">
+        <v>15</v>
+      </c>
+      <c r="H207" t="str">
+        <v>0</v>
+      </c>
+      <c r="I207" t="str">
+        <v>/in-port/885</v>
+      </c>
+      <c r="J207" t="str">
+        <v>/arrivals/885</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>990</v>
+      </c>
+      <c r="B208" t="str">
+        <v>AALST</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D208" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E208" t="str">
+        <v>1</v>
+      </c>
+      <c r="F208" t="str">
+        <v>0</v>
+      </c>
+      <c r="G208" t="str">
+        <v>0</v>
+      </c>
+      <c r="H208" t="str">
+        <v>3</v>
+      </c>
+      <c r="I208" t="str">
+        <v>/in-port/990</v>
+      </c>
+      <c r="J208" t="str">
+        <v>/arrivals/990</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>82</v>
+      </c>
+      <c r="B209" t="str">
+        <v>AARHUS</v>
+      </c>
+      <c r="C209" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D209" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E209" t="str">
+        <v>125</v>
+      </c>
+      <c r="F209" t="str">
+        <v>38</v>
+      </c>
+      <c r="G209" t="str">
+        <v>38</v>
+      </c>
+      <c r="H209" t="str">
+        <v>3</v>
+      </c>
+      <c r="I209" t="str">
+        <v>/in-port/82</v>
+      </c>
+      <c r="J209" t="str">
+        <v>/arrivals/82</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>3592</v>
+      </c>
+      <c r="B210" t="str">
+        <v>ABADAN</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D210" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E210" t="str">
+        <v>3</v>
+      </c>
+      <c r="F210" t="str">
+        <v>0</v>
+      </c>
+      <c r="G210" t="str">
+        <v>0</v>
+      </c>
+      <c r="H210" t="str">
+        <v>0</v>
+      </c>
+      <c r="I210" t="str">
+        <v>/in-port/3592</v>
+      </c>
+      <c r="J210" t="str">
+        <v>/arrivals/3592</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>4523</v>
+      </c>
+      <c r="B211" t="str">
+        <v>ABASHIRI</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D211" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E211" t="str">
+        <v>0</v>
+      </c>
+      <c r="F211" t="str">
+        <v>0</v>
+      </c>
+      <c r="G211" t="str">
+        <v>0</v>
+      </c>
+      <c r="H211" t="str">
+        <v>0</v>
+      </c>
+      <c r="I211" t="str">
+        <v>/in-port/4523</v>
+      </c>
+      <c r="J211" t="str">
+        <v>/arrivals/4523</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>5327</v>
+      </c>
+      <c r="B212" t="str">
+        <v>ABELNES</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D212" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E212" t="str">
+        <v>4</v>
+      </c>
+      <c r="F212" t="str">
+        <v>24</v>
+      </c>
+      <c r="G212" t="str">
+        <v>24</v>
+      </c>
+      <c r="H212" t="str">
+        <v>0</v>
+      </c>
+      <c r="I212" t="str">
+        <v>/in-port/5327</v>
+      </c>
+      <c r="J212" t="str">
+        <v>/arrivals/5327</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>6344</v>
+      </c>
+      <c r="B213" t="str">
+        <v>ABERDEEN</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D213" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E213" t="str">
+        <v>2</v>
+      </c>
+      <c r="F213" t="str">
+        <v>0</v>
+      </c>
+      <c r="G213" t="str">
+        <v>0</v>
+      </c>
+      <c r="H213" t="str">
+        <v>2</v>
+      </c>
+      <c r="I213" t="str">
+        <v>/in-port/6344</v>
+      </c>
+      <c r="J213" t="str">
+        <v>/arrivals/6344</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>83</v>
+      </c>
+      <c r="B214" t="str">
+        <v>ABERDEEN</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D214" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E214" t="str">
+        <v>40</v>
+      </c>
+      <c r="F214" t="str">
+        <v>27</v>
+      </c>
+      <c r="G214" t="str">
+        <v>32</v>
+      </c>
+      <c r="H214" t="str">
+        <v>11</v>
+      </c>
+      <c r="I214" t="str">
+        <v>/in-port/83</v>
+      </c>
+      <c r="J214" t="str">
+        <v>/arrivals/83</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>2454</v>
+      </c>
+      <c r="B215" t="str">
+        <v>ABERDEEN ANCH</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Anchorage</v>
+      </c>
+      <c r="D215" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E215" t="str">
+        <v>3</v>
+      </c>
+      <c r="F215" t="str">
+        <v>0</v>
+      </c>
+      <c r="G215" t="str">
+        <v>1</v>
+      </c>
+      <c r="H215" t="str">
+        <v>1</v>
+      </c>
+      <c r="I215" t="str">
+        <v>/in-port/2454</v>
+      </c>
+      <c r="J215" t="str">
+        <v>/arrivals/2454</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>1537</v>
+      </c>
+      <c r="B216" t="str">
+        <v>ABERDOUR</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D216" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E216" t="str">
+        <v>0</v>
+      </c>
+      <c r="F216" t="str">
+        <v>0</v>
+      </c>
+      <c r="G216" t="str">
+        <v>0</v>
+      </c>
+      <c r="H216" t="str">
+        <v>0</v>
+      </c>
+      <c r="I216" t="str">
+        <v>/in-port/1537</v>
+      </c>
+      <c r="J216" t="str">
+        <v>/arrivals/1537</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>3337</v>
+      </c>
+      <c r="B217" t="str">
+        <v>ABIDJAN</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D217" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E217" t="str">
+        <v>19</v>
+      </c>
+      <c r="F217" t="str">
+        <v>10</v>
+      </c>
+      <c r="G217" t="str">
+        <v>5</v>
+      </c>
+      <c r="H217" t="str">
+        <v>28</v>
+      </c>
+      <c r="I217" t="str">
+        <v>/in-port/3337</v>
+      </c>
+      <c r="J217" t="str">
+        <v>/arrivals/3337</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>5426</v>
+      </c>
+      <c r="B218" t="str">
+        <v>ABRA DE ILOG</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D218" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E218" t="str">
+        <v>0</v>
+      </c>
+      <c r="F218" t="str">
+        <v>11</v>
+      </c>
+      <c r="G218" t="str">
+        <v>11</v>
+      </c>
+      <c r="H218" t="str">
+        <v>3</v>
+      </c>
+      <c r="I218" t="str">
+        <v>/in-port/5426</v>
+      </c>
+      <c r="J218" t="str">
+        <v>/arrivals/5426</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>5642</v>
+      </c>
+      <c r="B219" t="str">
+        <v>ABRUKA</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D219" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E219" t="str">
+        <v>0</v>
+      </c>
+      <c r="F219" t="str">
+        <v>0</v>
+      </c>
+      <c r="G219" t="str">
+        <v>0</v>
+      </c>
+      <c r="H219" t="str">
+        <v>0</v>
+      </c>
+      <c r="I219" t="str">
+        <v>/in-port/5642</v>
+      </c>
+      <c r="J219" t="str">
+        <v>/arrivals/5642</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>5805</v>
+      </c>
+      <c r="B220" t="str">
+        <v>ABSHERON</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D220" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E220" t="str">
+        <v>0</v>
+      </c>
+      <c r="F220" t="str">
+        <v>0</v>
+      </c>
+      <c r="G220" t="str">
+        <v>1</v>
+      </c>
+      <c r="H220" t="str">
+        <v>0</v>
+      </c>
+      <c r="I220" t="str">
+        <v>/in-port/5805</v>
+      </c>
+      <c r="J220" t="str">
+        <v>/arrivals/5805</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>3181</v>
+      </c>
+      <c r="B221" t="str">
+        <v>ABU CHOSOUN</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D221" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E221" t="str">
+        <v>0</v>
+      </c>
+      <c r="F221" t="str">
+        <v>0</v>
+      </c>
+      <c r="G221" t="str">
+        <v>0</v>
+      </c>
+      <c r="H221" t="str">
+        <v>0</v>
+      </c>
+      <c r="I221" t="str">
+        <v>/in-port/3181</v>
+      </c>
+      <c r="J221" t="str">
+        <v>/arrivals/3181</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>84</v>
+      </c>
+      <c r="B222" t="str">
+        <v>ABU DHABI</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D222" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E222" t="str">
+        <v>67</v>
+      </c>
+      <c r="F222" t="str">
+        <v>34</v>
+      </c>
+      <c r="G222" t="str">
+        <v>41</v>
+      </c>
+      <c r="H222" t="str">
+        <v>21</v>
+      </c>
+      <c r="I222" t="str">
+        <v>/in-port/84</v>
+      </c>
+      <c r="J222" t="str">
+        <v>/arrivals/84</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>5853</v>
+      </c>
+      <c r="B223" t="str">
+        <v>ABU FULUS</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D223" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E223" t="str">
+        <v>2</v>
+      </c>
+      <c r="F223" t="str">
+        <v>1</v>
+      </c>
+      <c r="G223" t="str">
+        <v>0</v>
+      </c>
+      <c r="H223" t="str">
+        <v>1</v>
+      </c>
+      <c r="I223" t="str">
+        <v>/in-port/5853</v>
+      </c>
+      <c r="J223" t="str">
+        <v>/arrivals/5853</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>3599</v>
+      </c>
+      <c r="B224" t="str">
+        <v>ABU MUSA</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D224" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E224" t="str">
+        <v>2</v>
+      </c>
+      <c r="F224" t="str">
+        <v>2</v>
+      </c>
+      <c r="G224" t="str">
+        <v>2</v>
+      </c>
+      <c r="H224" t="str">
+        <v>2</v>
+      </c>
+      <c r="I224" t="str">
+        <v>/in-port/3599</v>
+      </c>
+      <c r="J224" t="str">
+        <v>/arrivals/3599</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>3173</v>
+      </c>
+      <c r="B225" t="str">
+        <v>ABU QIR</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D225" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E225" t="str">
+        <v>9</v>
+      </c>
+      <c r="F225" t="str">
+        <v>1</v>
+      </c>
+      <c r="G225" t="str">
+        <v>2</v>
+      </c>
+      <c r="H225" t="str">
+        <v>11</v>
+      </c>
+      <c r="I225" t="str">
+        <v>/in-port/3173</v>
+      </c>
+      <c r="J225" t="str">
+        <v>/arrivals/3173</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>4856</v>
+      </c>
+      <c r="B226" t="str">
+        <v>ABURATO</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D226" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E226" t="str">
+        <v>0</v>
+      </c>
+      <c r="F226" t="str">
+        <v>0</v>
+      </c>
+      <c r="G226" t="str">
+        <v>0</v>
+      </c>
+      <c r="H226" t="str">
+        <v>0</v>
+      </c>
+      <c r="I226" t="str">
+        <v>/in-port/4856</v>
+      </c>
+      <c r="J226" t="str">
+        <v>/arrivals/4856</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>4696</v>
+      </c>
+      <c r="B227" t="str">
+        <v>ABURATSU</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D227" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E227" t="str">
+        <v>1</v>
+      </c>
+      <c r="F227" t="str">
+        <v>0</v>
+      </c>
+      <c r="G227" t="str">
+        <v>0</v>
+      </c>
+      <c r="H227" t="str">
+        <v>0</v>
+      </c>
+      <c r="I227" t="str">
+        <v>/in-port/4696</v>
+      </c>
+      <c r="J227" t="str">
+        <v>/arrivals/4696</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>6089</v>
+      </c>
+      <c r="B228" t="str">
+        <v>ACADIAN CONTRACTORS</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D228" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E228" t="str">
+        <v>0</v>
+      </c>
+      <c r="F228" t="str">
+        <v>0</v>
+      </c>
+      <c r="G228" t="str">
+        <v>0</v>
+      </c>
+      <c r="H228" t="str">
+        <v>0</v>
+      </c>
+      <c r="I228" t="str">
+        <v>/in-port/6089</v>
+      </c>
+      <c r="J228" t="str">
+        <v>/arrivals/6089</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>7155</v>
+      </c>
+      <c r="B229" t="str">
+        <v>ACAJUTLA</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D229" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E229" t="str">
+        <v>4</v>
+      </c>
+      <c r="F229" t="str">
+        <v>2</v>
+      </c>
+      <c r="G229" t="str">
+        <v>2</v>
+      </c>
+      <c r="H229" t="str">
+        <v>7</v>
+      </c>
+      <c r="I229" t="str">
+        <v>/in-port/7155</v>
+      </c>
+      <c r="J229" t="str">
+        <v>/arrivals/7155</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>6616</v>
+      </c>
+      <c r="B230" t="str">
+        <v>ACAPULCO</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D230" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E230" t="str">
+        <v>1</v>
+      </c>
+      <c r="F230" t="str">
+        <v>0</v>
+      </c>
+      <c r="G230" t="str">
+        <v>0</v>
+      </c>
+      <c r="H230" t="str">
+        <v>0</v>
+      </c>
+      <c r="I230" t="str">
+        <v>/in-port/6616</v>
+      </c>
+      <c r="J230" t="str">
+        <v>/arrivals/6616</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>3338</v>
+      </c>
+      <c r="B231" t="str">
+        <v>ACCRA</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D231" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E231" t="str">
+        <v>0</v>
+      </c>
+      <c r="F231" t="str">
+        <v>0</v>
+      </c>
+      <c r="G231" t="str">
+        <v>0</v>
+      </c>
+      <c r="H231" t="str">
+        <v>0</v>
+      </c>
+      <c r="I231" t="str">
+        <v>/in-port/3338</v>
+      </c>
+      <c r="J231" t="str">
+        <v>/arrivals/3338</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>6767</v>
+      </c>
+      <c r="B232" t="str">
+        <v>ACHAO</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D232" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E232" t="str">
+        <v>0</v>
+      </c>
+      <c r="F232" t="str">
+        <v>0</v>
+      </c>
+      <c r="G232" t="str">
+        <v>0</v>
+      </c>
+      <c r="H232" t="str">
+        <v>0</v>
+      </c>
+      <c r="I232" t="str">
+        <v>/in-port/6767</v>
+      </c>
+      <c r="J232" t="str">
+        <v>/arrivals/6767</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>777</v>
+      </c>
+      <c r="B233" t="str">
+        <v>ACHILLI</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D233" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E233" t="str">
+        <v>0</v>
+      </c>
+      <c r="F233" t="str">
+        <v>0</v>
+      </c>
+      <c r="G233" t="str">
+        <v>0</v>
+      </c>
+      <c r="H233" t="str">
+        <v>0</v>
+      </c>
+      <c r="I233" t="str">
+        <v>/in-port/777</v>
+      </c>
+      <c r="J233" t="str">
+        <v>/arrivals/777</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>516</v>
+      </c>
+      <c r="B234" t="str">
+        <v>ACHILLIO</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D234" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E234" t="str">
+        <v>0</v>
+      </c>
+      <c r="F234" t="str">
+        <v>0</v>
+      </c>
+      <c r="G234" t="str">
+        <v>0</v>
+      </c>
+      <c r="H234" t="str">
+        <v>0</v>
+      </c>
+      <c r="I234" t="str">
+        <v>/in-port/516</v>
+      </c>
+      <c r="J234" t="str">
+        <v>/arrivals/516</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>528</v>
+      </c>
+      <c r="B235" t="str">
+        <v>ACHLADI</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D235" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E235" t="str">
+        <v>0</v>
+      </c>
+      <c r="F235" t="str">
+        <v>0</v>
+      </c>
+      <c r="G235" t="str">
+        <v>0</v>
+      </c>
+      <c r="H235" t="str">
+        <v>0</v>
+      </c>
+      <c r="I235" t="str">
+        <v>/in-port/528</v>
+      </c>
+      <c r="J235" t="str">
+        <v>/arrivals/528</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>1586</v>
+      </c>
+      <c r="B236" t="str">
+        <v>ACHNACROISH</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D236" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E236" t="str">
+        <v>0</v>
+      </c>
+      <c r="F236" t="str">
+        <v>3</v>
+      </c>
+      <c r="G236" t="str">
+        <v>3</v>
+      </c>
+      <c r="H236" t="str">
+        <v>0</v>
+      </c>
+      <c r="I236" t="str">
+        <v>/in-port/1586</v>
+      </c>
+      <c r="J236" t="str">
+        <v>/arrivals/1586</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>3159</v>
+      </c>
+      <c r="B237" t="str">
+        <v>ACRE</v>
+      </c>
+      <c r="C237" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D237" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E237" t="str">
+        <v>4</v>
+      </c>
+      <c r="F237" t="str">
+        <v>0</v>
+      </c>
+      <c r="G237" t="str">
+        <v>0</v>
+      </c>
+      <c r="H237" t="str">
+        <v>0</v>
+      </c>
+      <c r="I237" t="str">
+        <v>/in-port/3159</v>
+      </c>
+      <c r="J237" t="str">
+        <v>/arrivals/3159</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>6234</v>
+      </c>
+      <c r="B238" t="str">
+        <v>ADAK</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D238" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E238" t="str">
+        <v>0</v>
+      </c>
+      <c r="F238" t="str">
+        <v>0</v>
+      </c>
+      <c r="G238" t="str">
+        <v>0</v>
+      </c>
+      <c r="H238" t="str">
+        <v>0</v>
+      </c>
+      <c r="I238" t="str">
+        <v>/in-port/6234</v>
+      </c>
+      <c r="J238" t="str">
+        <v>/arrivals/6234</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>3813</v>
+      </c>
+      <c r="B239" t="str">
+        <v>ADELAIDE</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D239" t="str">
+        <v>XLarge</v>
+      </c>
+      <c r="E239" t="str">
+        <v>123</v>
+      </c>
+      <c r="F239" t="str">
+        <v>23</v>
+      </c>
+      <c r="G239" t="str">
+        <v>23</v>
+      </c>
+      <c r="H239" t="str">
+        <v>11</v>
+      </c>
+      <c r="I239" t="str">
+        <v>/in-port/3813</v>
+      </c>
+      <c r="J239" t="str">
+        <v>/arrivals/3813</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>3454</v>
+      </c>
+      <c r="B240" t="str">
+        <v>ADEN</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D240" t="str">
+        <v>Large</v>
+      </c>
+      <c r="E240" t="str">
+        <v>0</v>
+      </c>
+      <c r="F240" t="str">
+        <v>0</v>
+      </c>
+      <c r="G240" t="str">
+        <v>0</v>
+      </c>
+      <c r="H240" t="str">
+        <v>15</v>
+      </c>
+      <c r="I240" t="str">
+        <v>/in-port/3454</v>
+      </c>
+      <c r="J240" t="str">
+        <v>/arrivals/3454</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>3053</v>
+      </c>
+      <c r="B241" t="str">
+        <v>ADLER</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D241" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E241" t="str">
+        <v>1</v>
+      </c>
+      <c r="F241" t="str">
+        <v>0</v>
+      </c>
+      <c r="G241" t="str">
+        <v>0</v>
+      </c>
+      <c r="H241" t="str">
+        <v>0</v>
+      </c>
+      <c r="I241" t="str">
+        <v>/in-port/3053</v>
+      </c>
+      <c r="J241" t="str">
+        <v>/arrivals/3053</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>5766</v>
+      </c>
+      <c r="B242" t="str">
+        <v>ADONY</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D242" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E242" t="str">
+        <v>0</v>
+      </c>
+      <c r="F242" t="str">
+        <v>0</v>
+      </c>
+      <c r="G242" t="str">
+        <v>0</v>
+      </c>
+      <c r="H242" t="str">
+        <v>1</v>
+      </c>
+      <c r="I242" t="str">
+        <v>/in-port/5766</v>
+      </c>
+      <c r="J242" t="str">
+        <v>/arrivals/5766</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>1895</v>
+      </c>
+      <c r="B243" t="str">
+        <v>ADRA</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D243" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E243" t="str">
+        <v>4</v>
+      </c>
+      <c r="F243" t="str">
+        <v>0</v>
+      </c>
+      <c r="G243" t="str">
+        <v>2</v>
+      </c>
+      <c r="H243" t="str">
+        <v>0</v>
+      </c>
+      <c r="I243" t="str">
+        <v>/in-port/1895</v>
+      </c>
+      <c r="J243" t="str">
+        <v>/arrivals/1895</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>2738</v>
+      </c>
+      <c r="B244" t="str">
+        <v>ADRIA</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D244" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E244" t="str">
+        <v>0</v>
+      </c>
+      <c r="F244" t="str">
+        <v>0</v>
+      </c>
+      <c r="G244" t="str">
+        <v>0</v>
+      </c>
+      <c r="H244" t="str">
+        <v>0</v>
+      </c>
+      <c r="I244" t="str">
+        <v>/in-port/2738</v>
+      </c>
+      <c r="J244" t="str">
+        <v>/arrivals/2738</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>5</v>
+      </c>
+      <c r="B245" t="str">
+        <v>AEGINA</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D245" t="str">
+        <v>Small</v>
+      </c>
+      <c r="E245" t="str">
+        <v>10</v>
+      </c>
+      <c r="F245" t="str">
+        <v>34</v>
+      </c>
+      <c r="G245" t="str">
+        <v>40</v>
+      </c>
+      <c r="H245" t="str">
+        <v>8</v>
+      </c>
+      <c r="I245" t="str">
+        <v>/in-port/5</v>
+      </c>
+      <c r="J245" t="str">
+        <v>/arrivals/5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>793</v>
+      </c>
+      <c r="B246" t="str">
+        <v>AEGINA BOATYARD</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D246" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E246" t="str">
+        <v>6</v>
+      </c>
+      <c r="F246" t="str">
+        <v>0</v>
+      </c>
+      <c r="G246" t="str">
+        <v>2</v>
+      </c>
+      <c r="H246" t="str">
+        <v>0</v>
+      </c>
+      <c r="I246" t="str">
+        <v>/in-port/793</v>
+      </c>
+      <c r="J246" t="str">
+        <v>/arrivals/793</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>636</v>
+      </c>
+      <c r="B247" t="str">
+        <v>AEGINA MAR</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Marina</v>
+      </c>
+      <c r="D247" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E247" t="str">
+        <v>0</v>
+      </c>
+      <c r="F247" t="str">
+        <v>0</v>
+      </c>
+      <c r="G247" t="str">
+        <v>0</v>
+      </c>
+      <c r="H247" t="str">
+        <v>0</v>
+      </c>
+      <c r="I247" t="str">
+        <v>/in-port/636</v>
+      </c>
+      <c r="J247" t="str">
+        <v>/arrivals/636</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>5653</v>
+      </c>
+      <c r="B248" t="str">
+        <v>AEGNA</v>
+      </c>
+      <c r="C248" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D248" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E248" t="str">
+        <v>0</v>
+      </c>
+      <c r="F248" t="str">
+        <v>1</v>
+      </c>
+      <c r="G248" t="str">
+        <v>1</v>
+      </c>
+      <c r="H248" t="str">
+        <v>0</v>
+      </c>
+      <c r="I248" t="str">
+        <v>/in-port/5653</v>
+      </c>
+      <c r="J248" t="str">
+        <v>/arrivals/5653</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>2612</v>
+      </c>
+      <c r="B249" t="str">
+        <v>AEROSKOBING</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D249" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E249" t="str">
+        <v>19</v>
+      </c>
+      <c r="F249" t="str">
+        <v>25</v>
+      </c>
+      <c r="G249" t="str">
+        <v>19</v>
+      </c>
+      <c r="H249" t="str">
+        <v>2</v>
+      </c>
+      <c r="I249" t="str">
+        <v>/in-port/2612</v>
+      </c>
+      <c r="J249" t="str">
+        <v>/arrivals/2612</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>778</v>
+      </c>
+      <c r="B250" t="str">
+        <v>AETOS</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D250" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E250" t="str">
+        <v>0</v>
+      </c>
+      <c r="F250" t="str">
+        <v>3</v>
+      </c>
+      <c r="G250" t="str">
+        <v>3</v>
+      </c>
+      <c r="H250" t="str">
+        <v>1</v>
+      </c>
+      <c r="I250" t="str">
+        <v>/in-port/778</v>
+      </c>
+      <c r="J250" t="str">
+        <v>/arrivals/778</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>3578</v>
+      </c>
+      <c r="B251" t="str">
+        <v>AFTAB</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D251" t="str">
+        <v>XSmall</v>
+      </c>
+      <c r="E251" t="str">
+        <v>0</v>
+      </c>
+      <c r="F251" t="str">
+        <v>0</v>
+      </c>
+      <c r="G251" t="str">
+        <v>2</v>
+      </c>
+      <c r="H251" t="str">
+        <v>0</v>
+      </c>
+      <c r="I251" t="str">
+        <v>/in-port/3578</v>
+      </c>
+      <c r="J251" t="str">
+        <v>/arrivals/3578</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>3303</v>
+      </c>
+      <c r="B252" t="str">
+        <v>AGADIR</v>
+      </c>
+      <c r="C252" t="str">
+        <v>Port</v>
+      </c>
+      <c r="D252" t="str">
+        <v>Medium</v>
+      </c>
+      <c r="E252" t="str">
+        <v>12</v>
+      </c>
+      <c r="F252" t="str">
+        <v>3</v>
+      </c>
+      <c r="G252" t="str">
+        <v>2</v>
+      </c>
+      <c r="H252" t="str">
+        <v>10</v>
+      </c>
+      <c r="I252" t="str">
+        <v>/in-port/3303</v>
+      </c>
+      <c r="J252" t="str">
+        <v>/arrivals/3303</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H102"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J252"/>
   </ignoredErrors>
 </worksheet>
 </file>